--- a/Input/InsurancePlan Extraction Input.xlsx
+++ b/Input/InsurancePlan Extraction Input.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="505">
   <si>
     <t>DrLastLame</t>
   </si>
@@ -463,15 +463,6 @@
     <t xml:space="preserve">Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna  | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | UnitedHealthCare: United Healthcare </t>
   </si>
   <si>
-    <t xml:space="preserve">Aetna: Dental DPPO | Coventry Health Care: Wellpath Preferred PPO | Delta Dental: Delta Dental PPO | Delta Dental: Delta Dental Premier  | UnitedHealthCare: Dental </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Dental DPPO | Cigna: Dental  | Delta Dental: Delta Dental PPO | Delta Dental: Delta Dental Premier  | UnitedHealthCare: Dental </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Dental DPPO | Cigna: Dental  | UnitedHealthCare: Dental </t>
-  </si>
-  <si>
     <t>LID</t>
   </si>
   <si>
@@ -568,166 +559,991 @@
     <t>S</t>
   </si>
   <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Reed</t>
-  </si>
-  <si>
-    <t>Lance</t>
-  </si>
-  <si>
-    <t>Bernard</t>
-  </si>
-  <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>Rani</t>
-  </si>
-  <si>
-    <t>Murray</t>
-  </si>
-  <si>
-    <t>Archana</t>
-  </si>
-  <si>
-    <t>Harrison</t>
-  </si>
-  <si>
-    <t>Selvaraj</t>
-  </si>
-  <si>
-    <t>Agu</t>
-  </si>
-  <si>
-    <t>Mukherjee</t>
-  </si>
-  <si>
-    <t>Kristie</t>
-  </si>
-  <si>
-    <t>315 Elmora Ave Ste 104; Elizabeth; NJ 07208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Dental DPPO | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | UnitedHealthCare: United Healthcare </t>
-  </si>
-  <si>
-    <t>Avendano</t>
-  </si>
-  <si>
-    <t>Homaira</t>
-  </si>
-  <si>
-    <t>2233 S Danville Dr; Abilene; TX 79605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Dental DPPO | Cigna: Cigna  | Cigna: Dental </t>
-  </si>
-  <si>
-    <t>Melendez</t>
-  </si>
-  <si>
-    <t>4921 Centre Pointe Dr Ste 201; North Charleston; SC 29418</t>
-  </si>
-  <si>
-    <t>Dasgupta</t>
-  </si>
-  <si>
-    <t>1667 Lexington Ave; New York; NY 10029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Dental DPPO | Cigna: Cigna  | Delta Dental: Delta Dental PPO | Delta Dental: Delta Dental Premier  | UnitedHealthCare: Dental  | UnitedHealthCare: United Healthcare </t>
-  </si>
-  <si>
-    <t>Herschel</t>
-  </si>
-  <si>
-    <t>800 Weatherly Dr Ste 103b; Clarksville; TN 37043</t>
-  </si>
-  <si>
-    <t>Branscombe</t>
-  </si>
-  <si>
-    <t>8851 N 56th St; Temple Terrace; FL 33617</t>
-  </si>
-  <si>
-    <t>Keel</t>
-  </si>
-  <si>
-    <t>Elbert</t>
-  </si>
-  <si>
-    <t>304 N 2nd St; Bay Saint Louis; MS 39520</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Marti</t>
-  </si>
-  <si>
-    <t>Latrell</t>
-  </si>
-  <si>
-    <t>2620 W Arrowood Rd Ste 100; Charlotte; NC 28273</t>
-  </si>
-  <si>
-    <t>19 Elm St; Keene; NH 03431</t>
-  </si>
-  <si>
-    <t>Riddle</t>
-  </si>
-  <si>
-    <t>Jerome</t>
-  </si>
-  <si>
-    <t>7010 E Chauncey Ln Ste 140; Phoenix; AZ 85054</t>
-  </si>
-  <si>
-    <t>Stockton</t>
-  </si>
-  <si>
-    <t>6695 E Us Highway 36; Avon; IN 46123</t>
-  </si>
-  <si>
-    <t>Handelman</t>
-  </si>
-  <si>
-    <t>1681 Deer Park Ave; Deer Park; NY 11729</t>
-  </si>
-  <si>
-    <t>McGilloway</t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>935 Park Ave Ste 102; New York; NY 10028</t>
-  </si>
-  <si>
-    <t>Musto</t>
-  </si>
-  <si>
-    <t>920 Wyoming Ave Ste 104; Kingston; PA 18704</t>
-  </si>
-  <si>
-    <t>Chika</t>
-  </si>
-  <si>
-    <t>Ndidi</t>
-  </si>
-  <si>
-    <t>225 S Pleasantburg Dr Ste E10; Greenville; SC 29607</t>
-  </si>
-  <si>
-    <t>Townsend</t>
-  </si>
-  <si>
-    <t>10910 Kingston Pike Unit 105; Farragut; TN 37934</t>
+    <t>Cigna</t>
+  </si>
+  <si>
+    <t>Otsuka</t>
+  </si>
+  <si>
+    <t>Mayumi</t>
+  </si>
+  <si>
+    <t>516 E Nizhoni Blvd # 1337; Gallup; NM 87301</t>
+  </si>
+  <si>
+    <t>Tameka</t>
+  </si>
+  <si>
+    <t>Chirelle</t>
+  </si>
+  <si>
+    <t>MSW</t>
+  </si>
+  <si>
+    <t>1700 S Lincoln Ave; Lebanon; PA 17042</t>
+  </si>
+  <si>
+    <t>Mathews</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>917 Tuscaloosa Ave Sw; Birmingham; AL 35211</t>
+  </si>
+  <si>
+    <t>Rucker</t>
+  </si>
+  <si>
+    <t>3300 Greenwich Rd Unit 8; Norton; OH 44203</t>
+  </si>
+  <si>
+    <t>Benedict</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Justine</t>
+  </si>
+  <si>
+    <t>535 S Burdick St Ste 160; Kalamazoo; MI 49007</t>
+  </si>
+  <si>
+    <t>Lang</t>
+  </si>
+  <si>
+    <t>Frederick</t>
+  </si>
+  <si>
+    <t>3535 Olentangy River Rd; Columbus; OH 43214</t>
+  </si>
+  <si>
+    <t>Goldenberg</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>1712 E Boston St; Gilbert; AZ 85295</t>
+  </si>
+  <si>
+    <t>Takaki</t>
+  </si>
+  <si>
+    <t>Nanao</t>
+  </si>
+  <si>
+    <t>NMD</t>
+  </si>
+  <si>
+    <t>9887 W Bell Rd; Sun City; AZ 85351</t>
+  </si>
+  <si>
+    <t>Ziomek</t>
+  </si>
+  <si>
+    <t>Sherri</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>3940 Cherokee St Nw Ste 402; Kennesaw; GA 30144</t>
+  </si>
+  <si>
+    <t>Hamzeh</t>
+  </si>
+  <si>
+    <t>Sahar</t>
+  </si>
+  <si>
+    <t>2645 Bethel Rd; Columbus; OH 43220</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Louanne</t>
+  </si>
+  <si>
+    <t>1701 South Blvd E Ste 200; Rochester Hills; MI 48307</t>
+  </si>
+  <si>
+    <t>Whyte</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>50 New Scotland Ave; Albany; NY 12208</t>
+  </si>
+  <si>
+    <t>Sepp</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Paige</t>
+  </si>
+  <si>
+    <t>DPT</t>
+  </si>
+  <si>
+    <t>2077 Brodhead Rd; Aliquippa; PA 15001</t>
+  </si>
+  <si>
+    <t>Hammond</t>
+  </si>
+  <si>
+    <t>Janie</t>
+  </si>
+  <si>
+    <t>LMSW</t>
+  </si>
+  <si>
+    <t>190 E Bannock St; Boise; ID 83712</t>
+  </si>
+  <si>
+    <t>Richter</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Renee</t>
+  </si>
+  <si>
+    <t>3920 Bee Ridge Rd Bldg D; Sarasota; FL 34233</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Morris</t>
+  </si>
+  <si>
+    <t>3855 Health Sciences Dr; La Jolla; CA 92093</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Ayana</t>
+  </si>
+  <si>
+    <t>555 Technology Ct Ste 300; Riverside; CA 92507</t>
+  </si>
+  <si>
+    <t>Hirsch</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Nolan</t>
+  </si>
+  <si>
+    <t>1025 E Main St Ste 100; League City; TX 77573</t>
+  </si>
+  <si>
+    <t>Coltman</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>1720 S Beckham Ave Ste 104; Tyler; TX 75701</t>
+  </si>
+  <si>
+    <t>Bohnenblust</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>SLP</t>
+  </si>
+  <si>
+    <t>715 Liberty St; Clay Center; KS 67432</t>
+  </si>
+  <si>
+    <t>Weller</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>22833 Bothell Everett Hwy Ste 205; Bothell; WA 98021</t>
+  </si>
+  <si>
+    <t>Harmon</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>1113 NW 23rd Ave; Chiefland; FL 32626</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Louise</t>
+  </si>
+  <si>
+    <t>2131 S 17th St; Wilmington; NC 28401</t>
+  </si>
+  <si>
+    <t>Khorsandi</t>
+  </si>
+  <si>
+    <t>2779 Sunridge Heights Pkwy Ste 100; Henderson; NV 89052</t>
+  </si>
+  <si>
+    <t>Seirafi</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>2000 10th Ave Ste 225; Columbus; GA 31901</t>
+  </si>
+  <si>
+    <t>Storts</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Sue</t>
+  </si>
+  <si>
+    <t>LISW</t>
+  </si>
+  <si>
+    <t>1490 E Main St; Columbus; OH 43205</t>
+  </si>
+  <si>
+    <t>Lisner</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>4209 Outer Loop; Louisville; KY 40219</t>
+  </si>
+  <si>
+    <t>Hogg</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>1111 Hendersonville Rd; Asheville; NC 28803</t>
+  </si>
+  <si>
+    <t>Hellmann</t>
+  </si>
+  <si>
+    <t>340 Oxford St; Dover; OH 44622</t>
+  </si>
+  <si>
+    <t>Laroy</t>
+  </si>
+  <si>
+    <t>123 W 31st St; Kearney; NE 68847</t>
+  </si>
+  <si>
+    <t>Fontenoy</t>
+  </si>
+  <si>
+    <t>Serena</t>
+  </si>
+  <si>
+    <t>60 W Sunbridge Dr; Fayetteville; AR 72703</t>
+  </si>
+  <si>
+    <t>Hendricks</t>
+  </si>
+  <si>
+    <t>301 Saint Paul St; Baltimore; MD 21202</t>
+  </si>
+  <si>
+    <t>Kaopua</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>L.K.</t>
+  </si>
+  <si>
+    <t>111 Se Everett Mall Way D; Everett; WA 98208</t>
+  </si>
+  <si>
+    <t>Starenchak</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>29800 Bainbridge Rd # So-10; Solon; OH 44139</t>
+  </si>
+  <si>
+    <t>Beste</t>
+  </si>
+  <si>
+    <t>Janalynn</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>2523 DELANEY AVE; Wilmington; NC 28403</t>
+  </si>
+  <si>
+    <t>Roth</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>1000 W Pinhook Rd Ste 304; Lafayette; LA 70503</t>
+  </si>
+  <si>
+    <t>Pishvaian</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>18109 Prince Philip Dr Ste B100; Olney; MD 20832</t>
+  </si>
+  <si>
+    <t>Rudolph</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>1939 Division Ave S; Grand Rapids; MI 49507</t>
+  </si>
+  <si>
+    <t>Dunlap</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>4811 Ambassador Caffery Pkwy Ste 401a; Lafayette; LA 70508</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>2002 Medical Pkwy Ste 630; Annapolis; MD 21401</t>
+  </si>
+  <si>
+    <t>Valvo</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>463 S Lake Powell Blvd; Page; AZ 86040</t>
+  </si>
+  <si>
+    <t>Gebhart</t>
+  </si>
+  <si>
+    <t>200 1st St Sw; Rochester; MN 55905</t>
+  </si>
+  <si>
+    <t>Mathiason</t>
+  </si>
+  <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Marie Leslie</t>
+  </si>
+  <si>
+    <t>LRD</t>
+  </si>
+  <si>
+    <t>1200 S Columbia Rd; Grand Forks; ND 58201</t>
+  </si>
+  <si>
+    <t>Chai</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Martono</t>
+  </si>
+  <si>
+    <t>1520 BARTON RD; Redlands; CA 92373</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>8445 Rosemead Blvd; Pico Rivera; CA 90660</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>2650 Ridge Ave Rm 5303; Evanston; IL 60201</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
+    <t>4004 Campbell St; Valparaiso; IN 46385</t>
+  </si>
+  <si>
+    <t>Carver</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Taun</t>
+  </si>
+  <si>
+    <t>APRN</t>
+  </si>
+  <si>
+    <t>4403 Harrison Blvd Ste 2455; Ogden; UT 84403</t>
+  </si>
+  <si>
+    <t>Goedjen</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>135 Norcross St; Roswell; GA 30075</t>
+  </si>
+  <si>
+    <t>Dee-Reyes</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>5995 S Pointe Blvd; Fort Myers; FL 33919</t>
+  </si>
+  <si>
+    <t>Pluguez</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>55 Calle De Diego E Ste 101; Mayaguez; PR 00680</t>
+  </si>
+  <si>
+    <t>Stansbury</t>
+  </si>
+  <si>
+    <t>FNP-C</t>
+  </si>
+  <si>
+    <t>100 Westland Pl; West Monroe; LA 71291</t>
+  </si>
+  <si>
+    <t>Hearn</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>1311 Brandywine Blvd; Wilmington; DE 19809</t>
+  </si>
+  <si>
+    <t>McGowan</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>415 Medical Dr Ste A200; Bountiful; UT 84010</t>
+  </si>
+  <si>
+    <t>Addona</t>
+  </si>
+  <si>
+    <t>Tommaso</t>
+  </si>
+  <si>
+    <t>999 Franklin Ave; Garden City; NY 11530</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>5142 Stage Rd Ste 100; Memphis; TN 38134</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Dakota</t>
+  </si>
+  <si>
+    <t>4755 Ogletown Stanton Rd Ste Le45; Newark; DE 19718</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Godocs Llc 949 Piney Frst Rd; Danville; VA 24540</t>
+  </si>
+  <si>
+    <t>Diefendorf</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>2700 Quarry Lake Dr Ste 300; Baltimore; MD 21209</t>
+  </si>
+  <si>
+    <t>Varma</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>Medavaram</t>
+  </si>
+  <si>
+    <t>2124 State Route 35; Holmdel; NJ 07733</t>
+  </si>
+  <si>
+    <t>Langley</t>
+  </si>
+  <si>
+    <t>Tonya</t>
+  </si>
+  <si>
+    <t>CSFA</t>
+  </si>
+  <si>
+    <t>1040 S Fleishel Ave; Tyler; TX 75701</t>
+  </si>
+  <si>
+    <t>Starobinets</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>25-15 Fair Lawn Ave; Fair Lawn; NJ 07410</t>
+  </si>
+  <si>
+    <t>Morelli</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>48 S New York Rd Ste B4; Smithville; NJ 08205</t>
+  </si>
+  <si>
+    <t>Demboski</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>5830 Coral Ridge Dr Ste 120; Coral Springs; FL 33076</t>
+  </si>
+  <si>
+    <t>Cherpack</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>8701 Shoal Creek Blvd Ste 102; Austin; TX 78757</t>
+  </si>
+  <si>
+    <t>Mayeda</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>1140 W La Veta Ave Ste 420; Orange; CA 92868</t>
+  </si>
+  <si>
+    <t>Schwartz</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>1919 N Ed Carey Dr; Harlingen; TX 78550</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>511 Nilles Rd; Fairfield; OH 45014</t>
+  </si>
+  <si>
+    <t>Otero</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Evette</t>
+  </si>
+  <si>
+    <t>916 N Mountain Ave Ste A; Upland; CA 91786</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>5921 Riley Park Dr; Fort Smith; AR 72916</t>
+  </si>
+  <si>
+    <t>Ebrahimpour</t>
+  </si>
+  <si>
+    <t>Pantea</t>
+  </si>
+  <si>
+    <t>123 Summer St; Worcester; MA 01608</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Frances</t>
+  </si>
+  <si>
+    <t>1660 S Columbian Way; Seattle; WA 98108</t>
+  </si>
+  <si>
+    <t>Hamrock</t>
+  </si>
+  <si>
+    <t>735 Niles Cortland Rd Se; Warren; OH 44484</t>
+  </si>
+  <si>
+    <t>Adefris</t>
+  </si>
+  <si>
+    <t>Wanda</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>1875 Woodwinds Dr Ste 110; Woodbury; MN 55125</t>
+  </si>
+  <si>
+    <t>Elsheikh</t>
+  </si>
+  <si>
+    <t>Bakri</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>395 W 12th Ave; Columbus; OH 43210</t>
+  </si>
+  <si>
+    <t>Akcoban</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>205 E Toronto Ave; McAllen; TX 78503</t>
+  </si>
+  <si>
+    <t>Casallas</t>
+  </si>
+  <si>
+    <t>Flora</t>
+  </si>
+  <si>
+    <t>CADC</t>
+  </si>
+  <si>
+    <t>500 N West St; Doylestown; PA 18901</t>
+  </si>
+  <si>
+    <t>Pingree</t>
+  </si>
+  <si>
+    <t>3465 S Pioneer Pkwy Ste 5; West Valley City; UT 84120</t>
+  </si>
+  <si>
+    <t>Josyula</t>
+  </si>
+  <si>
+    <t>Aruna</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>1150 E Sherman Blvd Ste 1125; Muskegon; MI 49444</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>2600 Greenwood Rd; Shreveport; LA 71103</t>
+  </si>
+  <si>
+    <t>Christ</t>
+  </si>
+  <si>
+    <t>Meredith</t>
+  </si>
+  <si>
+    <t>5100 Prairie Pkwy Ste 300; Cedar Falls; IA 50613</t>
+  </si>
+  <si>
+    <t>Audette</t>
+  </si>
+  <si>
+    <t>Conrad</t>
+  </si>
+  <si>
+    <t>60 Merrimack St; Haverhill; MA 01830</t>
+  </si>
+  <si>
+    <t>Lyons</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>1558 MONTEITH AVE; Hernando; MS 38632</t>
+  </si>
+  <si>
+    <t>Latimer</t>
+  </si>
+  <si>
+    <t>Tomitra</t>
+  </si>
+  <si>
+    <t>4867 N Broadway St # 16; Chicago; IL 60640</t>
+  </si>
+  <si>
+    <t>Bruchanski</t>
+  </si>
+  <si>
+    <t>Mary Katherine</t>
+  </si>
+  <si>
+    <t>3555 Lutheran Pkwy Ste 200; Wheat Ridge; CO 80033</t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II</t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Coventry Health America PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Dental DPPO | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | Delta Dental: Delta Dental PPO | Delta Dental: Delta Dental Premier  | UnitedHealthCare: United Healthcare </t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna PPO | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Aetna  | Cigna: Cigna  | Coventry Health Care: Coventry Health Care  | MultiPlan: MultiPlan  | UnitedHealthCare: United Healthcare </t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Advantage  | Aetna: Aetna HMO | Aetna: Choice  | Aetna: Choice POS | Aetna: Choice PPO | Aetna: Choice Plus POS II | Aetna: Commercial HMO | Aetna: Elect Choice  | Aetna: Elect Choice EPO | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: LocalPlus  | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network POS | MultiPlan: PHCS Network PPO | MultiPlan: PHCS Open Access PPO | UnitedHealthCare: United Behavioral Health </t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Great West Healthcare-Cigna  | Cigna: Great West Healthcare-Cigna PPO | Cigna: Open Access  | Coventry Health Care: Group Plan PPO | First Health (Coventry Health Care): First Health (Coventry Health Care)  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | UnitedHealthCare: Navigate HMO | UnitedHealthCare: Navigate POS</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: PHCS Network PPO | UnitedHealthCare: Choice Plus POS | UnitedHealthCare: Navigate HMO | UnitedHealthCare: Navigate POS | UnitedHealthCare: Options PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Coventry Health America PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Blue Cross Blue Shield: Blue Card PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Great West Healthcare-Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Medicare Advantage PFFS | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO | UnitedHealthCare: Choice Plus POS | UnitedHealthCare: Navigate HMO | UnitedHealthCare: Navigate POS | UnitedHealthCare: Options PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Aetna: Select  | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Southern Health PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna PPO | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Basic HMO | Aetna: Choice Plus POS II | Anthem: $0 Cost Share AI-AN (Pathway X - HMO/ Individual Via Exchange)-CA HMO | Anthem: Advantage-CA HMO | Anthem: Advantage-CA PPO | Anthem: Balanced (Prudent Buyer)-CA PPO | Anthem: Blue Cross (CACare) - Individual-CA HMO | Anthem: Blue Cross (CACare) - Large Group-CA HMO | Anthem: Blue Cross (CACare) - Small Group-CA HMO | Anthem: Blue Cross (Prudent Buyer) - Individual-CA PPO | Anthem: Blue Cross (Prudent Buyer) - Large Group-CA PPO | Anthem: Blue Cross (Prudent Buyer) - Small Group-CA PPO | Anthem: Blue Cross (Prudent Buyer) - Student Health-CA PPO | Anthem: Blue Cross-CA HMO-POS | Anthem: Bronze (Prudent Buyer PPO/ Small Grp)-CA PPO | Anthem: Bronze 60 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Bronze 60 AI-AN (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Bronze 60 D (Pathway - HMO/ Individual)-CA HMO | Anthem: Bronze EPO (Prudent Buyer / Small Grp)-CA PPO | Anthem: Bronze EPO (Prudent Buyer EPO/ Small Grp)-CA  | Anthem: Bronze Select (Select PPO/ Small Grp)-CA PPO | Anthem: Bronze Select w/ H.S.A (Select PPO/ Small Grp)-CA PPO | Anthem: Bronze w/ H.S.A (Prudent Buyer PPO/Small Grp)-CA PPO | Anthem: Dignity Health Custom Advantage-CA HMO | Anthem: Dignity Health EPO / PPO-CA  | Anthem: Dignity Health PHC EPO &amp;amp; HDP/HSA-CA  | Anthem: Dignity Health Ventura EPO/PPO-CA  | Anthem: EPO-CA  | Anthem: Gold (CaliforniaCare HMO/ Small Grp) HMO | Anthem: Gold (Prudent Buyer PPO/ Small Grp)-CA PPO | Anthem: Gold 80 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Gold 80 AI-AN (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Gold 80 D (Pathway - HMO/ Individual)-CA HMO | Anthem: Gold Advantage-CA PPO | Anthem: Gold EPO (Prudent Buyer / Small Grp)-CA PPO | Anthem: Gold EPO (Prudent Buyer EPO/ Small Grp)-CA  | Anthem: Gold Priority Select-CA HMO | Anthem: Gold Select (Select / Small Grp)-CA HMO | Anthem: Gold Select (Select PPO/ Small Grp)-CA PPO | Anthem: Lumenos Plans-CA PPO | Anthem: Major Risk Medical Insurance Program (MRMIP) - Prudent Buyer-CA PPO | Anthem: MemorialCare Custom-CA PPO | Anthem: Minimum Coverage-CA HMO | Anthem: National (BlueCard Basic) PPO | Anthem: National (BlueCard) PPO | Anthem: Pathway X - Network-CA HMO | Anthem: PERS Choice / PERSCare Providers-CA PPO | Anthem: PERS Select-CA HMO | Anthem: PERS Traditional-CA HMO | Anthem: Platinum (CaliforniaCare HMO/ Small Grp) HMO | Anthem: Platinum (Prudent Buyer PPO/ Small Grp)-CA PPO | Anthem: Platinum 90 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Platinum 90 AI-AN (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Platinum 90 D (Pathway - HMO/ Individual)-CA HMO | Anthem: Platinum Priority Select-CA HMO | Anthem: Platinum Select (Select / Small Grp)-CA HMO | Anthem: Platinum Select (Select PPO/ Small Grp)-CA PPO | Anthem: Priority Select-CA HMO | Anthem: Select (PERS Select Providers)-CA PPO | Anthem: Select Plus-CA HMO | Anthem: Select PPO (Select Network)-CA PPO | Anthem: Select-CA HMO | Anthem: Select-CA PPO | Anthem: Silver (CaliforniaCare HMO/ Small Grp) HMO | Anthem: Silver (Prudent Buyer PPO/ Small Grp)-CA PPO | Anthem: Silver 70 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver 70 AI-AN (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver 70 Off Exchange (Pathway - HMO/ Individual)-CA HMO | Anthem: Silver 73 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver 87 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver 94 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver Advantage-CA PPO | Anthem: Silver EPO (Prudent Buyer EPO/ Small Grp)-CA  | Anthem: Silver EPO w/ H.S.A (Prudent Buyer/Small Grp)-CA PPO | Anthem: Silver Priority Select-CA HMO | Anthem: Silver Select (Select / Small Grp)-CA HMO | Anthem: Silver Select (Select PPO/ Small Grp)-CA PPO | Anthem: Silver Select w/ H.S.A (Select PPO/ Small Grp)-CA PPO | Anthem: Silver w/ H.S.A (Prudent Buyer PPO/Small Grp)-CA PPO | Anthem: Tenet Network-CA PPO | Anthem: Traditional  | Anthem: Traditional PPO | Anthem: UC Care-CA PPO | Anthem: UC CORE-CA PPO | Anthem: UC Health Savings Plan-CA  | Anthem: UC High Option Supplement to Medicare-CA  | Anthem: UC Medicare with Prescription Drugs-CA PPO | Anthem: UC Medicare without Prescription Drugs-CA PPO | Anthem: UC Resident and Fellows-CA PPO | Anthem: UCSHIP-CA PPO | Anthem: USC Plan (Two Tiered Network)-CA HMO | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: LocalPlus  | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Blue Cross Blue Shield: Blue Card PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Coventry Health Care: Coventry Health America PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Aetna  | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | MultiPlan: MultiPlan </t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Blue Cross Blue Shield: Blue Card PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Aetna  | Aetna: Dental DPPO | Blue Cross Blue Shield: Blue Cross  | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | Coventry Health Care: Coventry Health Care  | Delta Dental: Delta Dental  | Delta Dental: Delta Dental PPO | Delta Dental: Delta Dental Premier  | MultiPlan: MultiPlan  | UnitedHealthCare: Dental </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Aetna  | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna  | UnitedHealthCare: United Healthcare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Aetna  | Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | Cigna: Cigna HMO | Cigna: Open Access Plus  | Coventry Health Care: Coventry Health Care  | MultiPlan: MultiPlan PPO | UnitedHealthCare: United Healthcare </t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Aetna: Select  | Cigna: Cigna PPO | Coventry Health Care: Southern Health PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Aetna  | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | UnitedHealthCare: United Healthcare </t>
+  </si>
+  <si>
+    <t>Anthem: National (BlueCard) PPO</t>
+  </si>
+  <si>
+    <t>First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Anthem: National (BlueCard) PPO | Blue Cross Blue Shield: Blue Card PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Coventry Health America PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
+  </si>
+  <si>
+    <t>Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | UnitedHealthCare: Optimum Choice HMO | UnitedHealthCare: United Behavioral Health </t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus </t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: LocalPlus  | Cigna: Open Access Plus  | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Coventry Health Care: Coventry Health America PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: PHCS Network PPO</t>
   </si>
 </sst>
 </file>
@@ -1103,11 +1919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,9 +1939,9 @@
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1136,10 +1952,10 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -1149,408 +1965,2373 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2660</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2">
+        <v>1518954999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3">
+        <v>1568616209</v>
+      </c>
+      <c r="F3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4">
+        <v>1689630188</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5">
+        <v>1114115581</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" t="s">
         <v>191</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E6">
+        <v>1093151177</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="3">
-        <v>1407068869</v>
-      </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1851349633</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8">
+        <v>1417170432</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>1326392697</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10">
+        <v>1417287657</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11">
+        <v>1013085844</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2661</v>
-      </c>
-      <c r="B3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1215259700</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12">
+        <v>1396028387</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13">
+        <v>1801954169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14">
+        <v>1871982181</v>
+      </c>
+      <c r="F14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2662</v>
-      </c>
-      <c r="B4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1659553980</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2663</v>
-      </c>
-      <c r="B5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1790750800</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>202</v>
-      </c>
-      <c r="H5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2671</v>
-      </c>
-      <c r="B6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1598944340</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2674</v>
-      </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1053724583</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2682</v>
-      </c>
-      <c r="B8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1275760126</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2683</v>
-      </c>
-      <c r="B9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1295959559</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2684</v>
-      </c>
-      <c r="B10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1568830677</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>215</v>
-      </c>
-      <c r="H10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2690</v>
-      </c>
-      <c r="B11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1992880546</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>218</v>
-      </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2694</v>
-      </c>
-      <c r="B12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1194725119</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2695</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>221</v>
       </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1730217126</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="C15" t="s">
         <v>222</v>
       </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2696</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="E15">
+        <v>1174983035</v>
+      </c>
+      <c r="F15" t="s">
         <v>223</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G15" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="3">
-        <v>1205101383</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>225</v>
       </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2697</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>226</v>
       </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1417059148</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="D16" t="s">
         <v>227</v>
       </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2698</v>
-      </c>
-      <c r="B16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16">
+        <v>1497076335</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
         <v>228</v>
       </c>
-      <c r="D16" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1962713602</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>230</v>
-      </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2699</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17">
+        <v>1669634663</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
         <v>231</v>
       </c>
-      <c r="C17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1942284732</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>1023557006</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19">
+        <v>1326155326</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20">
+        <v>1619940442</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21">
+        <v>1962642405</v>
+      </c>
+      <c r="F21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1861617615</v>
+      </c>
+      <c r="F22" t="s">
         <v>14</v>
       </c>
-      <c r="G17" t="s">
-        <v>232</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G22" t="s">
+        <v>249</v>
+      </c>
+      <c r="H22" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23">
+        <v>1922060946</v>
+      </c>
+      <c r="F23" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24">
+        <v>1811420029</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>1235376377</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26">
+        <v>1578564837</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>263</v>
+      </c>
+      <c r="H26" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27">
+        <v>1780885194</v>
+      </c>
+      <c r="F27" t="s">
+        <v>267</v>
+      </c>
+      <c r="G27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28">
+        <v>1629085949</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>272</v>
+      </c>
+      <c r="H28" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29">
+        <v>1902981780</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1376614768</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>277</v>
+      </c>
+      <c r="H30" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>278</v>
+      </c>
+      <c r="E31">
+        <v>1619904927</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>279</v>
+      </c>
+      <c r="H31" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>1285186692</v>
+      </c>
+      <c r="F32" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <v>1629414008</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" t="s">
+        <v>287</v>
+      </c>
+      <c r="E34">
+        <v>1356304000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D35" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35">
+        <v>1356338107</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>291</v>
+      </c>
+      <c r="H35" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>292</v>
+      </c>
+      <c r="C36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D36" t="s">
+        <v>294</v>
+      </c>
+      <c r="E36">
+        <v>1750388161</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>295</v>
+      </c>
+      <c r="H36" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>296</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E37">
+        <v>1215934187</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>298</v>
+      </c>
+      <c r="H37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C38" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" t="s">
+        <v>300</v>
+      </c>
+      <c r="E38">
+        <v>1710171061</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>301</v>
+      </c>
+      <c r="H38" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>1548273782</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>302</v>
+      </c>
+      <c r="C40" t="s">
+        <v>303</v>
+      </c>
+      <c r="E40">
+        <v>1376019117</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>305</v>
+      </c>
+      <c r="C41" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" t="s">
+        <v>307</v>
+      </c>
+      <c r="E41">
+        <v>1174562367</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" t="s">
+        <v>310</v>
+      </c>
+      <c r="E42">
+        <v>1780772707</v>
+      </c>
+      <c r="F42" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" t="s">
+        <v>314</v>
+      </c>
+      <c r="E43">
+        <v>1558765255</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43" t="s">
+        <v>315</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>316</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>297</v>
+      </c>
+      <c r="E44">
+        <v>1902884737</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>317</v>
+      </c>
+      <c r="H44" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>318</v>
+      </c>
+      <c r="C45" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" t="s">
+        <v>320</v>
+      </c>
+      <c r="E45">
+        <v>1215156518</v>
+      </c>
+      <c r="F45" t="s">
+        <v>321</v>
+      </c>
+      <c r="G45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46">
+        <v>1619935129</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" t="s">
+        <v>324</v>
+      </c>
+      <c r="D47" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47">
+        <v>1548299928</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>326</v>
+      </c>
+      <c r="H47" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" t="s">
+        <v>328</v>
+      </c>
+      <c r="D48" t="s">
+        <v>329</v>
+      </c>
+      <c r="E48">
+        <v>1013091461</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>330</v>
+      </c>
+      <c r="H48" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>331</v>
+      </c>
+      <c r="C49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" t="s">
+        <v>332</v>
+      </c>
+      <c r="E49">
+        <v>1780604041</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>333</v>
+      </c>
+      <c r="H49" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" t="s">
+        <v>335</v>
+      </c>
+      <c r="E50">
+        <v>1710945811</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>337</v>
+      </c>
+      <c r="C51" t="s">
+        <v>338</v>
+      </c>
+      <c r="D51" t="s">
+        <v>339</v>
+      </c>
+      <c r="E51">
+        <v>1447437926</v>
+      </c>
+      <c r="F51" t="s">
+        <v>340</v>
+      </c>
+      <c r="G51" t="s">
+        <v>341</v>
+      </c>
+      <c r="H51" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>342</v>
+      </c>
+      <c r="C52" t="s">
+        <v>343</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52">
+        <v>1912292657</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>344</v>
+      </c>
+      <c r="H52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" t="s">
+        <v>346</v>
+      </c>
+      <c r="E53">
+        <v>1124081641</v>
+      </c>
+      <c r="F53" t="s">
+        <v>347</v>
+      </c>
+      <c r="G53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" t="s">
+        <v>350</v>
+      </c>
+      <c r="E54">
+        <v>1093852576</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>352</v>
+      </c>
+      <c r="C55" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55">
+        <v>1508271719</v>
+      </c>
+      <c r="F55" t="s">
+        <v>353</v>
+      </c>
+      <c r="G55" t="s">
+        <v>354</v>
+      </c>
+      <c r="H55" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>355</v>
+      </c>
+      <c r="C56" t="s">
+        <v>356</v>
+      </c>
+      <c r="E56">
+        <v>1225388663</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>358</v>
+      </c>
+      <c r="C57" t="s">
+        <v>359</v>
+      </c>
+      <c r="D57" t="s">
+        <v>360</v>
+      </c>
+      <c r="E57">
+        <v>1659661288</v>
+      </c>
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>361</v>
+      </c>
+      <c r="H57" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>362</v>
+      </c>
+      <c r="C58" t="s">
+        <v>363</v>
+      </c>
+      <c r="E58">
+        <v>1306004353</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>364</v>
+      </c>
+      <c r="H58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>365</v>
+      </c>
+      <c r="C59" t="s">
+        <v>366</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59">
+        <v>1093752198</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>367</v>
+      </c>
+      <c r="H59" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>368</v>
+      </c>
+      <c r="C60" t="s">
+        <v>369</v>
+      </c>
+      <c r="D60" t="s">
+        <v>271</v>
+      </c>
+      <c r="E60">
+        <v>1689094534</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>371</v>
+      </c>
+      <c r="C61" t="s">
+        <v>372</v>
+      </c>
+      <c r="E61">
+        <v>1194297853</v>
+      </c>
+      <c r="F61" t="s">
+        <v>353</v>
+      </c>
+      <c r="G61" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>374</v>
+      </c>
+      <c r="C62" t="s">
+        <v>375</v>
+      </c>
+      <c r="D62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62">
+        <v>1437187002</v>
+      </c>
+      <c r="F62" t="s">
+        <v>311</v>
+      </c>
+      <c r="G62" t="s">
+        <v>376</v>
+      </c>
+      <c r="H62" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>377</v>
+      </c>
+      <c r="C63" t="s">
+        <v>378</v>
+      </c>
+      <c r="D63" t="s">
+        <v>379</v>
+      </c>
+      <c r="E63">
+        <v>1841482106</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>380</v>
+      </c>
+      <c r="H63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64">
+        <v>1558361881</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>381</v>
+      </c>
+      <c r="C65" t="s">
+        <v>382</v>
+      </c>
+      <c r="E65">
+        <v>1316308554</v>
+      </c>
+      <c r="F65" t="s">
+        <v>383</v>
+      </c>
+      <c r="G65" t="s">
+        <v>384</v>
+      </c>
+      <c r="H65" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66">
+        <v>1619421815</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67">
+        <v>1629238647</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>385</v>
+      </c>
+      <c r="C68" t="s">
+        <v>386</v>
+      </c>
+      <c r="E68">
+        <v>1336323450</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>387</v>
+      </c>
+      <c r="H68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69">
+        <v>1588853808</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>388</v>
+      </c>
+      <c r="C70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" t="s">
+        <v>389</v>
+      </c>
+      <c r="E70">
+        <v>1801958210</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>390</v>
+      </c>
+      <c r="H70" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71">
+        <v>1093796559</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>56</v>
+      </c>
+      <c r="H71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>391</v>
+      </c>
+      <c r="C72" t="s">
+        <v>392</v>
+      </c>
+      <c r="E72">
+        <v>1417207663</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>394</v>
+      </c>
+      <c r="C73" t="s">
+        <v>395</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73">
+        <v>1669560744</v>
+      </c>
+      <c r="F73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" t="s">
+        <v>396</v>
+      </c>
+      <c r="H73" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>397</v>
+      </c>
+      <c r="C74" t="s">
+        <v>398</v>
+      </c>
+      <c r="D74" t="s">
+        <v>399</v>
+      </c>
+      <c r="E74">
+        <v>1487716544</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>400</v>
+      </c>
+      <c r="H74" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>401</v>
+      </c>
+      <c r="C75" t="s">
+        <v>402</v>
+      </c>
+      <c r="D75" t="s">
+        <v>403</v>
+      </c>
+      <c r="E75">
+        <v>1457342412</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>405</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>1427139633</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>406</v>
+      </c>
+      <c r="H76" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>407</v>
+      </c>
+      <c r="C77" t="s">
+        <v>408</v>
+      </c>
+      <c r="D77" t="s">
+        <v>409</v>
+      </c>
+      <c r="E77">
+        <v>1831222652</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>411</v>
+      </c>
+      <c r="C78" t="s">
+        <v>412</v>
+      </c>
+      <c r="D78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78">
+        <v>1447256102</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>414</v>
+      </c>
+      <c r="C79" t="s">
+        <v>415</v>
+      </c>
+      <c r="E79">
+        <v>1205389715</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>417</v>
+      </c>
+      <c r="C80" t="s">
+        <v>418</v>
+      </c>
+      <c r="D80" t="s">
+        <v>419</v>
+      </c>
+      <c r="E80">
+        <v>1689190605</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>421</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>1215990288</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>422</v>
+      </c>
+      <c r="H81" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82">
+        <v>1861447914</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83">
+        <v>1144458399</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>66</v>
+      </c>
+      <c r="H83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>423</v>
+      </c>
+      <c r="C84" t="s">
+        <v>424</v>
+      </c>
+      <c r="D84" t="s">
+        <v>425</v>
+      </c>
+      <c r="E84">
+        <v>1235115577</v>
+      </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" t="s">
+        <v>426</v>
+      </c>
+      <c r="H84" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>427</v>
+      </c>
+      <c r="C85" t="s">
+        <v>428</v>
+      </c>
+      <c r="D85" t="s">
+        <v>429</v>
+      </c>
+      <c r="E85">
+        <v>1275617532</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>430</v>
+      </c>
+      <c r="H85" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>431</v>
+      </c>
+      <c r="C86" t="s">
+        <v>432</v>
+      </c>
+      <c r="D86" t="s">
+        <v>433</v>
+      </c>
+      <c r="E86">
+        <v>1245626837</v>
+      </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>1912942020</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>435</v>
+      </c>
+      <c r="C88" t="s">
+        <v>436</v>
+      </c>
+      <c r="E88">
+        <v>1578866802</v>
+      </c>
+      <c r="F88" t="s">
+        <v>437</v>
+      </c>
+      <c r="G88" t="s">
+        <v>438</v>
+      </c>
+      <c r="H88" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>52</v>
+      </c>
+      <c r="E89">
+        <v>1912024621</v>
+      </c>
+      <c r="F89" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" t="s">
+        <v>78</v>
+      </c>
+      <c r="E90">
+        <v>1134101470</v>
+      </c>
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" t="s">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>439</v>
+      </c>
+      <c r="C91" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" t="s">
+        <v>194</v>
+      </c>
+      <c r="E91">
+        <v>1982716031</v>
+      </c>
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>440</v>
+      </c>
+      <c r="H91" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>1588831655</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>82</v>
+      </c>
+      <c r="H92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>441</v>
+      </c>
+      <c r="C93" t="s">
+        <v>442</v>
+      </c>
+      <c r="D93" t="s">
+        <v>443</v>
+      </c>
+      <c r="E93">
+        <v>1396993788</v>
+      </c>
+      <c r="F93" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" t="s">
+        <v>444</v>
+      </c>
+      <c r="H93" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>445</v>
+      </c>
+      <c r="C94" t="s">
+        <v>446</v>
+      </c>
+      <c r="D94" t="s">
+        <v>447</v>
+      </c>
+      <c r="E94">
+        <v>1669534020</v>
+      </c>
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" t="s">
+        <v>448</v>
+      </c>
+      <c r="H94" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>449</v>
+      </c>
+      <c r="C95" t="s">
+        <v>450</v>
+      </c>
+      <c r="D95" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95">
+        <v>1568423531</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>451</v>
+      </c>
+      <c r="H95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E96">
+        <v>1285958769</v>
+      </c>
+      <c r="F96" t="s">
+        <v>87</v>
+      </c>
+      <c r="G96" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>452</v>
+      </c>
+      <c r="C97" t="s">
+        <v>453</v>
+      </c>
+      <c r="D97" t="s">
+        <v>174</v>
+      </c>
+      <c r="E97">
+        <v>1942593298</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>455</v>
+      </c>
+      <c r="C98" t="s">
+        <v>271</v>
+      </c>
+      <c r="D98" t="s">
+        <v>456</v>
+      </c>
+      <c r="E98">
+        <v>1699719021</v>
+      </c>
+      <c r="F98" t="s">
+        <v>58</v>
+      </c>
+      <c r="G98" t="s">
+        <v>457</v>
+      </c>
+      <c r="H98" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>458</v>
+      </c>
+      <c r="C99" t="s">
+        <v>459</v>
+      </c>
+      <c r="E99">
+        <v>1427001825</v>
+      </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" t="s">
+        <v>460</v>
+      </c>
+      <c r="H99" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>461</v>
+      </c>
+      <c r="C100" t="s">
+        <v>462</v>
+      </c>
+      <c r="E100">
+        <v>1336417708</v>
+      </c>
+      <c r="F100" t="s">
+        <v>252</v>
+      </c>
+      <c r="G100" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +4356,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1584,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1602,7 +4383,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1616,7 +4397,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1645,7 +4426,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -1674,7 +4455,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -1703,7 +4484,7 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F5">
         <v>1619421815</v>
@@ -1729,7 +4510,7 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -1758,7 +4539,7 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
         <v>52</v>
@@ -1787,7 +4568,7 @@
         <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F8">
         <v>1093796559</v>
@@ -1813,7 +4594,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
@@ -1842,7 +4623,7 @@
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F10">
         <v>1144458399</v>
@@ -1868,7 +4649,7 @@
         <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1897,7 +4678,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
         <v>52</v>
@@ -1926,7 +4707,7 @@
         <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
         <v>78</v>
@@ -1955,7 +4736,7 @@
         <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1984,7 +4765,7 @@
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s">
         <v>86</v>
@@ -2013,7 +4794,7 @@
         <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -2042,7 +4823,7 @@
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
         <v>96</v>
@@ -2071,7 +4852,7 @@
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -2100,7 +4881,7 @@
         <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E19" t="s">
         <v>104</v>
@@ -2129,7 +4910,7 @@
         <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E20" t="s">
         <v>109</v>
@@ -2158,7 +4939,7 @@
         <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
         <v>113</v>
@@ -2187,7 +4968,7 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E22" t="s">
         <v>59</v>
@@ -2216,7 +4997,7 @@
         <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s">
         <v>23</v>
@@ -2245,7 +5026,7 @@
         <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
         <v>125</v>
@@ -2274,7 +5055,7 @@
         <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -2303,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E26" t="s">
         <v>133</v>
@@ -2332,7 +5113,7 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
         <v>137</v>
@@ -2361,7 +5142,7 @@
         <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>

--- a/Input/InsurancePlan Extraction Input.xlsx
+++ b/Input/InsurancePlan Extraction Input.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Check!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$1:$I$3401</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$1:$I$3390</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="377">
   <si>
     <t>DrLastLame</t>
   </si>
@@ -250,1064 +250,924 @@
     <t xml:space="preserve">Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: LocalPlus  | Cigna: Open Access Plus </t>
   </si>
   <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Otsuka</t>
+  </si>
+  <si>
+    <t>Mayumi</t>
+  </si>
+  <si>
+    <t>516 E Nizhoni Blvd # 1337; Gallup; NM 87301</t>
+  </si>
+  <si>
+    <t>Tameka</t>
+  </si>
+  <si>
+    <t>Chirelle</t>
+  </si>
+  <si>
+    <t>MSW</t>
+  </si>
+  <si>
+    <t>1700 S Lincoln Ave; Lebanon; PA 17042</t>
+  </si>
+  <si>
+    <t>Mathews</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>917 Tuscaloosa Ave Sw; Birmingham; AL 35211</t>
+  </si>
+  <si>
+    <t>Rucker</t>
+  </si>
+  <si>
+    <t>3300 Greenwich Rd Unit 8; Norton; OH 44203</t>
+  </si>
+  <si>
+    <t>Benedict</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Justine</t>
+  </si>
+  <si>
+    <t>535 S Burdick St Ste 160; Kalamazoo; MI 49007</t>
+  </si>
+  <si>
+    <t>Lang</t>
+  </si>
+  <si>
+    <t>Frederick</t>
+  </si>
+  <si>
+    <t>3535 Olentangy River Rd; Columbus; OH 43214</t>
+  </si>
+  <si>
+    <t>Goldenberg</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>1712 E Boston St; Gilbert; AZ 85295</t>
+  </si>
+  <si>
+    <t>Takaki</t>
+  </si>
+  <si>
+    <t>Nanao</t>
+  </si>
+  <si>
+    <t>NMD</t>
+  </si>
+  <si>
+    <t>9887 W Bell Rd; Sun City; AZ 85351</t>
+  </si>
+  <si>
+    <t>Ziomek</t>
+  </si>
+  <si>
+    <t>Sherri</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>3940 Cherokee St Nw Ste 402; Kennesaw; GA 30144</t>
+  </si>
+  <si>
+    <t>Hamzeh</t>
+  </si>
+  <si>
+    <t>Sahar</t>
+  </si>
+  <si>
+    <t>2645 Bethel Rd; Columbus; OH 43220</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Louanne</t>
+  </si>
+  <si>
+    <t>1701 South Blvd E Ste 200; Rochester Hills; MI 48307</t>
+  </si>
+  <si>
+    <t>Whyte</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>50 New Scotland Ave; Albany; NY 12208</t>
+  </si>
+  <si>
+    <t>Sepp</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Paige</t>
+  </si>
+  <si>
+    <t>DPT</t>
+  </si>
+  <si>
+    <t>2077 Brodhead Rd; Aliquippa; PA 15001</t>
+  </si>
+  <si>
+    <t>Hammond</t>
+  </si>
+  <si>
+    <t>Janie</t>
+  </si>
+  <si>
+    <t>LMSW</t>
+  </si>
+  <si>
+    <t>190 E Bannock St; Boise; ID 83712</t>
+  </si>
+  <si>
+    <t>Richter</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Renee</t>
+  </si>
+  <si>
+    <t>3920 Bee Ridge Rd Bldg D; Sarasota; FL 34233</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Morris</t>
+  </si>
+  <si>
+    <t>3855 Health Sciences Dr; La Jolla; CA 92093</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Ayana</t>
+  </si>
+  <si>
+    <t>555 Technology Ct Ste 300; Riverside; CA 92507</t>
+  </si>
+  <si>
+    <t>Hirsch</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Nolan</t>
+  </si>
+  <si>
+    <t>1025 E Main St Ste 100; League City; TX 77573</t>
+  </si>
+  <si>
+    <t>Coltman</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>1720 S Beckham Ave Ste 104; Tyler; TX 75701</t>
+  </si>
+  <si>
+    <t>Bohnenblust</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>SLP</t>
+  </si>
+  <si>
+    <t>715 Liberty St; Clay Center; KS 67432</t>
+  </si>
+  <si>
+    <t>Weller</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>22833 Bothell Everett Hwy Ste 205; Bothell; WA 98021</t>
+  </si>
+  <si>
+    <t>Harmon</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>1113 NW 23rd Ave; Chiefland; FL 32626</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Louise</t>
+  </si>
+  <si>
+    <t>2131 S 17th St; Wilmington; NC 28401</t>
+  </si>
+  <si>
+    <t>Khorsandi</t>
+  </si>
+  <si>
+    <t>2779 Sunridge Heights Pkwy Ste 100; Henderson; NV 89052</t>
+  </si>
+  <si>
+    <t>Seirafi</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>2000 10th Ave Ste 225; Columbus; GA 31901</t>
+  </si>
+  <si>
+    <t>Storts</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Sue</t>
+  </si>
+  <si>
+    <t>LISW</t>
+  </si>
+  <si>
+    <t>1490 E Main St; Columbus; OH 43205</t>
+  </si>
+  <si>
+    <t>Lisner</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>4209 Outer Loop; Louisville; KY 40219</t>
+  </si>
+  <si>
+    <t>Hogg</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>1111 Hendersonville Rd; Asheville; NC 28803</t>
+  </si>
+  <si>
+    <t>Hellmann</t>
+  </si>
+  <si>
+    <t>340 Oxford St; Dover; OH 44622</t>
+  </si>
+  <si>
+    <t>Laroy</t>
+  </si>
+  <si>
+    <t>123 W 31st St; Kearney; NE 68847</t>
+  </si>
+  <si>
+    <t>Fontenoy</t>
+  </si>
+  <si>
+    <t>Serena</t>
+  </si>
+  <si>
+    <t>60 W Sunbridge Dr; Fayetteville; AR 72703</t>
+  </si>
+  <si>
+    <t>Hendricks</t>
+  </si>
+  <si>
+    <t>301 Saint Paul St; Baltimore; MD 21202</t>
+  </si>
+  <si>
+    <t>Kaopua</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>L.K.</t>
+  </si>
+  <si>
+    <t>111 Se Everett Mall Way D; Everett; WA 98208</t>
+  </si>
+  <si>
+    <t>Starenchak</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>29800 Bainbridge Rd # So-10; Solon; OH 44139</t>
+  </si>
+  <si>
+    <t>Beste</t>
+  </si>
+  <si>
+    <t>Janalynn</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>2523 DELANEY AVE; Wilmington; NC 28403</t>
+  </si>
+  <si>
+    <t>Roth</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>1000 W Pinhook Rd Ste 304; Lafayette; LA 70503</t>
+  </si>
+  <si>
+    <t>Pishvaian</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>18109 Prince Philip Dr Ste B100; Olney; MD 20832</t>
+  </si>
+  <si>
+    <t>Rudolph</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>1939 Division Ave S; Grand Rapids; MI 49507</t>
+  </si>
+  <si>
+    <t>Dunlap</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>4811 Ambassador Caffery Pkwy Ste 401a; Lafayette; LA 70508</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>2002 Medical Pkwy Ste 630; Annapolis; MD 21401</t>
+  </si>
+  <si>
+    <t>Valvo</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>463 S Lake Powell Blvd; Page; AZ 86040</t>
+  </si>
+  <si>
+    <t>Gebhart</t>
+  </si>
+  <si>
+    <t>200 1st St Sw; Rochester; MN 55905</t>
+  </si>
+  <si>
+    <t>Mathiason</t>
+  </si>
+  <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Marie Leslie</t>
+  </si>
+  <si>
+    <t>LRD</t>
+  </si>
+  <si>
+    <t>1200 S Columbia Rd; Grand Forks; ND 58201</t>
+  </si>
+  <si>
+    <t>Chai</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Martono</t>
+  </si>
+  <si>
+    <t>1520 BARTON RD; Redlands; CA 92373</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>8445 Rosemead Blvd; Pico Rivera; CA 90660</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>2650 Ridge Ave Rm 5303; Evanston; IL 60201</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
+    <t>4004 Campbell St; Valparaiso; IN 46385</t>
+  </si>
+  <si>
+    <t>Carver</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Taun</t>
+  </si>
+  <si>
+    <t>APRN</t>
+  </si>
+  <si>
+    <t>4403 Harrison Blvd Ste 2455; Ogden; UT 84403</t>
+  </si>
+  <si>
+    <t>Goedjen</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>135 Norcross St; Roswell; GA 30075</t>
+  </si>
+  <si>
+    <t>Dee-Reyes</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>5995 S Pointe Blvd; Fort Myers; FL 33919</t>
+  </si>
+  <si>
+    <t>Pluguez</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>55 Calle De Diego E Ste 101; Mayaguez; PR 00680</t>
+  </si>
+  <si>
+    <t>Stansbury</t>
+  </si>
+  <si>
+    <t>FNP-C</t>
+  </si>
+  <si>
+    <t>100 Westland Pl; West Monroe; LA 71291</t>
+  </si>
+  <si>
+    <t>Hearn</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>1311 Brandywine Blvd; Wilmington; DE 19809</t>
+  </si>
+  <si>
+    <t>McGowan</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>415 Medical Dr Ste A200; Bountiful; UT 84010</t>
+  </si>
+  <si>
+    <t>Addona</t>
+  </si>
+  <si>
+    <t>Tommaso</t>
+  </si>
+  <si>
+    <t>999 Franklin Ave; Garden City; NY 11530</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>5142 Stage Rd Ste 100; Memphis; TN 38134</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Dakota</t>
+  </si>
+  <si>
+    <t>4755 Ogletown Stanton Rd Ste Le45; Newark; DE 19718</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Godocs Llc 949 Piney Frst Rd; Danville; VA 24540</t>
+  </si>
+  <si>
+    <t>Diefendorf</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>2700 Quarry Lake Dr Ste 300; Baltimore; MD 21209</t>
+  </si>
+  <si>
+    <t>Varma</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>Medavaram</t>
+  </si>
+  <si>
+    <t>2124 State Route 35; Holmdel; NJ 07733</t>
+  </si>
+  <si>
+    <t>Langley</t>
+  </si>
+  <si>
+    <t>Tonya</t>
+  </si>
+  <si>
+    <t>CSFA</t>
+  </si>
+  <si>
+    <t>1040 S Fleishel Ave; Tyler; TX 75701</t>
+  </si>
+  <si>
+    <t>Starobinets</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>25-15 Fair Lawn Ave; Fair Lawn; NJ 07410</t>
+  </si>
+  <si>
+    <t>Morelli</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>48 S New York Rd Ste B4; Smithville; NJ 08205</t>
+  </si>
+  <si>
+    <t>Demboski</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>5830 Coral Ridge Dr Ste 120; Coral Springs; FL 33076</t>
+  </si>
+  <si>
+    <t>Cherpack</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>8701 Shoal Creek Blvd Ste 102; Austin; TX 78757</t>
+  </si>
+  <si>
+    <t>Mayeda</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>1140 W La Veta Ave Ste 420; Orange; CA 92868</t>
+  </si>
+  <si>
+    <t>Schwartz</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>1919 N Ed Carey Dr; Harlingen; TX 78550</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>511 Nilles Rd; Fairfield; OH 45014</t>
+  </si>
+  <si>
+    <t>Otero</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Evette</t>
+  </si>
+  <si>
+    <t>916 N Mountain Ave Ste A; Upland; CA 91786</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>5921 Riley Park Dr; Fort Smith; AR 72916</t>
+  </si>
+  <si>
+    <t>Ebrahimpour</t>
+  </si>
+  <si>
+    <t>Pantea</t>
+  </si>
+  <si>
+    <t>123 Summer St; Worcester; MA 01608</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Frances</t>
+  </si>
+  <si>
+    <t>1660 S Columbian Way; Seattle; WA 98108</t>
+  </si>
+  <si>
+    <t>Hamrock</t>
+  </si>
+  <si>
+    <t>735 Niles Cortland Rd Se; Warren; OH 44484</t>
+  </si>
+  <si>
+    <t>Adefris</t>
+  </si>
+  <si>
+    <t>Wanda</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>1875 Woodwinds Dr Ste 110; Woodbury; MN 55125</t>
+  </si>
+  <si>
+    <t>Elsheikh</t>
+  </si>
+  <si>
+    <t>Bakri</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>395 W 12th Ave; Columbus; OH 43210</t>
+  </si>
+  <si>
+    <t>Akcoban</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>205 E Toronto Ave; McAllen; TX 78503</t>
+  </si>
+  <si>
+    <t>Casallas</t>
+  </si>
+  <si>
+    <t>Flora</t>
+  </si>
+  <si>
+    <t>CADC</t>
+  </si>
+  <si>
+    <t>500 N West St; Doylestown; PA 18901</t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II</t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Coventry Health America PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Dental DPPO | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | Delta Dental: Delta Dental PPO | Delta Dental: Delta Dental Premier  | UnitedHealthCare: United Healthcare </t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna PPO | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Aetna  | Cigna: Cigna  | Coventry Health Care: Coventry Health Care  | MultiPlan: MultiPlan  | UnitedHealthCare: United Healthcare </t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Advantage  | Aetna: Aetna HMO | Aetna: Choice  | Aetna: Choice POS | Aetna: Choice PPO | Aetna: Choice Plus POS II | Aetna: Commercial HMO | Aetna: Elect Choice  | Aetna: Elect Choice EPO | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: LocalPlus  | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network POS | MultiPlan: PHCS Network PPO | MultiPlan: PHCS Open Access PPO | UnitedHealthCare: United Behavioral Health </t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Great West Healthcare-Cigna  | Cigna: Great West Healthcare-Cigna PPO | Cigna: Open Access  | Coventry Health Care: Group Plan PPO | First Health (Coventry Health Care): First Health (Coventry Health Care)  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | UnitedHealthCare: Navigate HMO | UnitedHealthCare: Navigate POS</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: PHCS Network PPO | UnitedHealthCare: Choice Plus POS | UnitedHealthCare: Navigate HMO | UnitedHealthCare: Navigate POS | UnitedHealthCare: Options PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Coventry Health America PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Blue Cross Blue Shield: Blue Card PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Great West Healthcare-Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Medicare Advantage PFFS | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO | UnitedHealthCare: Choice Plus POS | UnitedHealthCare: Navigate HMO | UnitedHealthCare: Navigate POS | UnitedHealthCare: Options PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Aetna: Select  | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Southern Health PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna PPO | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Basic HMO | Aetna: Choice Plus POS II | Anthem: $0 Cost Share AI-AN (Pathway X - HMO/ Individual Via Exchange)-CA HMO | Anthem: Advantage-CA HMO | Anthem: Advantage-CA PPO | Anthem: Balanced (Prudent Buyer)-CA PPO | Anthem: Blue Cross (CACare) - Individual-CA HMO | Anthem: Blue Cross (CACare) - Large Group-CA HMO | Anthem: Blue Cross (CACare) - Small Group-CA HMO | Anthem: Blue Cross (Prudent Buyer) - Individual-CA PPO | Anthem: Blue Cross (Prudent Buyer) - Large Group-CA PPO | Anthem: Blue Cross (Prudent Buyer) - Small Group-CA PPO | Anthem: Blue Cross (Prudent Buyer) - Student Health-CA PPO | Anthem: Blue Cross-CA HMO-POS | Anthem: Bronze (Prudent Buyer PPO/ Small Grp)-CA PPO | Anthem: Bronze 60 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Bronze 60 AI-AN (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Bronze 60 D (Pathway - HMO/ Individual)-CA HMO | Anthem: Bronze EPO (Prudent Buyer / Small Grp)-CA PPO | Anthem: Bronze EPO (Prudent Buyer EPO/ Small Grp)-CA  | Anthem: Bronze Select (Select PPO/ Small Grp)-CA PPO | Anthem: Bronze Select w/ H.S.A (Select PPO/ Small Grp)-CA PPO | Anthem: Bronze w/ H.S.A (Prudent Buyer PPO/Small Grp)-CA PPO | Anthem: Dignity Health Custom Advantage-CA HMO | Anthem: Dignity Health EPO / PPO-CA  | Anthem: Dignity Health PHC EPO &amp;amp; HDP/HSA-CA  | Anthem: Dignity Health Ventura EPO/PPO-CA  | Anthem: EPO-CA  | Anthem: Gold (CaliforniaCare HMO/ Small Grp) HMO | Anthem: Gold (Prudent Buyer PPO/ Small Grp)-CA PPO | Anthem: Gold 80 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Gold 80 AI-AN (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Gold 80 D (Pathway - HMO/ Individual)-CA HMO | Anthem: Gold Advantage-CA PPO | Anthem: Gold EPO (Prudent Buyer / Small Grp)-CA PPO | Anthem: Gold EPO (Prudent Buyer EPO/ Small Grp)-CA  | Anthem: Gold Priority Select-CA HMO | Anthem: Gold Select (Select / Small Grp)-CA HMO | Anthem: Gold Select (Select PPO/ Small Grp)-CA PPO | Anthem: Lumenos Plans-CA PPO | Anthem: Major Risk Medical Insurance Program (MRMIP) - Prudent Buyer-CA PPO | Anthem: MemorialCare Custom-CA PPO | Anthem: Minimum Coverage-CA HMO | Anthem: National (BlueCard Basic) PPO | Anthem: National (BlueCard) PPO | Anthem: Pathway X - Network-CA HMO | Anthem: PERS Choice / PERSCare Providers-CA PPO | Anthem: PERS Select-CA HMO | Anthem: PERS Traditional-CA HMO | Anthem: Platinum (CaliforniaCare HMO/ Small Grp) HMO | Anthem: Platinum (Prudent Buyer PPO/ Small Grp)-CA PPO | Anthem: Platinum 90 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Platinum 90 AI-AN (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Platinum 90 D (Pathway - HMO/ Individual)-CA HMO | Anthem: Platinum Priority Select-CA HMO | Anthem: Platinum Select (Select / Small Grp)-CA HMO | Anthem: Platinum Select (Select PPO/ Small Grp)-CA PPO | Anthem: Priority Select-CA HMO | Anthem: Select (PERS Select Providers)-CA PPO | Anthem: Select Plus-CA HMO | Anthem: Select PPO (Select Network)-CA PPO | Anthem: Select-CA HMO | Anthem: Select-CA PPO | Anthem: Silver (CaliforniaCare HMO/ Small Grp) HMO | Anthem: Silver (Prudent Buyer PPO/ Small Grp)-CA PPO | Anthem: Silver 70 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver 70 AI-AN (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver 70 Off Exchange (Pathway - HMO/ Individual)-CA HMO | Anthem: Silver 73 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver 87 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver 94 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver Advantage-CA PPO | Anthem: Silver EPO (Prudent Buyer EPO/ Small Grp)-CA  | Anthem: Silver EPO w/ H.S.A (Prudent Buyer/Small Grp)-CA PPO | Anthem: Silver Priority Select-CA HMO | Anthem: Silver Select (Select / Small Grp)-CA HMO | Anthem: Silver Select (Select PPO/ Small Grp)-CA PPO | Anthem: Silver Select w/ H.S.A (Select PPO/ Small Grp)-CA PPO | Anthem: Silver w/ H.S.A (Prudent Buyer PPO/Small Grp)-CA PPO | Anthem: Tenet Network-CA PPO | Anthem: Traditional  | Anthem: Traditional PPO | Anthem: UC Care-CA PPO | Anthem: UC CORE-CA PPO | Anthem: UC Health Savings Plan-CA  | Anthem: UC High Option Supplement to Medicare-CA  | Anthem: UC Medicare with Prescription Drugs-CA PPO | Anthem: UC Medicare without Prescription Drugs-CA PPO | Anthem: UC Resident and Fellows-CA PPO | Anthem: UCSHIP-CA PPO | Anthem: USC Plan (Two Tiered Network)-CA HMO | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: LocalPlus  | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Blue Cross Blue Shield: Blue Card PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Coventry Health Care: Coventry Health America PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Aetna  | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | MultiPlan: MultiPlan </t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Blue Cross Blue Shield: Blue Card PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Aetna  | Aetna: Dental DPPO | Blue Cross Blue Shield: Blue Cross  | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | Coventry Health Care: Coventry Health Care  | Delta Dental: Delta Dental  | Delta Dental: Delta Dental PPO | Delta Dental: Delta Dental Premier  | MultiPlan: MultiPlan  | UnitedHealthCare: Dental </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Aetna  | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna  | UnitedHealthCare: United Healthcare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Aetna  | Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | Cigna: Cigna HMO | Cigna: Open Access Plus  | Coventry Health Care: Coventry Health Care  | MultiPlan: MultiPlan PPO | UnitedHealthCare: United Healthcare </t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Aetna: Select  | Cigna: Cigna PPO | Coventry Health Care: Southern Health PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aetna: Aetna  | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | UnitedHealthCare: United Healthcare </t>
+  </si>
+  <si>
+    <t>Anthem: National (BlueCard) PPO</t>
+  </si>
+  <si>
+    <t>First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Anthem: National (BlueCard) PPO | Blue Cross Blue Shield: Blue Card PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Coventry Health America PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
+  </si>
+  <si>
+    <t>Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | UnitedHealthCare: Optimum Choice HMO | UnitedHealthCare: United Behavioral Health </t>
+  </si>
+  <si>
+    <t>LID</t>
+  </si>
+  <si>
     <t>Aetna</t>
   </si>
   <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Otsuka</t>
-  </si>
-  <si>
-    <t>Mayumi</t>
-  </si>
-  <si>
-    <t>516 E Nizhoni Blvd # 1337; Gallup; NM 87301</t>
-  </si>
-  <si>
-    <t>Tameka</t>
-  </si>
-  <si>
-    <t>Chirelle</t>
-  </si>
-  <si>
-    <t>MSW</t>
-  </si>
-  <si>
-    <t>1700 S Lincoln Ave; Lebanon; PA 17042</t>
-  </si>
-  <si>
-    <t>Mathews</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>917 Tuscaloosa Ave Sw; Birmingham; AL 35211</t>
-  </si>
-  <si>
-    <t>Rucker</t>
-  </si>
-  <si>
-    <t>3300 Greenwich Rd Unit 8; Norton; OH 44203</t>
-  </si>
-  <si>
-    <t>Benedict</t>
-  </si>
-  <si>
-    <t>Megan</t>
-  </si>
-  <si>
-    <t>Justine</t>
-  </si>
-  <si>
-    <t>535 S Burdick St Ste 160; Kalamazoo; MI 49007</t>
-  </si>
-  <si>
-    <t>Lang</t>
-  </si>
-  <si>
-    <t>Frederick</t>
-  </si>
-  <si>
-    <t>3535 Olentangy River Rd; Columbus; OH 43214</t>
-  </si>
-  <si>
-    <t>Goldenberg</t>
-  </si>
-  <si>
-    <t>Todd</t>
-  </si>
-  <si>
-    <t>1712 E Boston St; Gilbert; AZ 85295</t>
-  </si>
-  <si>
-    <t>Takaki</t>
-  </si>
-  <si>
-    <t>Nanao</t>
-  </si>
-  <si>
-    <t>NMD</t>
-  </si>
-  <si>
-    <t>9887 W Bell Rd; Sun City; AZ 85351</t>
-  </si>
-  <si>
-    <t>Ziomek</t>
-  </si>
-  <si>
-    <t>Sherri</t>
-  </si>
-  <si>
-    <t>Marie</t>
-  </si>
-  <si>
-    <t>3940 Cherokee St Nw Ste 402; Kennesaw; GA 30144</t>
-  </si>
-  <si>
-    <t>Hamzeh</t>
-  </si>
-  <si>
-    <t>Sahar</t>
-  </si>
-  <si>
-    <t>2645 Bethel Rd; Columbus; OH 43220</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>Louanne</t>
-  </si>
-  <si>
-    <t>1701 South Blvd E Ste 200; Rochester Hills; MI 48307</t>
-  </si>
-  <si>
-    <t>Whyte</t>
-  </si>
-  <si>
-    <t>Christina</t>
-  </si>
-  <si>
-    <t>50 New Scotland Ave; Albany; NY 12208</t>
-  </si>
-  <si>
-    <t>Sepp</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Paige</t>
-  </si>
-  <si>
-    <t>DPT</t>
-  </si>
-  <si>
-    <t>2077 Brodhead Rd; Aliquippa; PA 15001</t>
-  </si>
-  <si>
-    <t>Hammond</t>
-  </si>
-  <si>
-    <t>Janie</t>
-  </si>
-  <si>
-    <t>LMSW</t>
-  </si>
-  <si>
-    <t>190 E Bannock St; Boise; ID 83712</t>
-  </si>
-  <si>
-    <t>Richter</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Renee</t>
-  </si>
-  <si>
-    <t>3920 Bee Ridge Rd Bldg D; Sarasota; FL 34233</t>
-  </si>
-  <si>
-    <t>Mitchell</t>
-  </si>
-  <si>
-    <t>Morris</t>
-  </si>
-  <si>
-    <t>3855 Health Sciences Dr; La Jolla; CA 92093</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>Ayana</t>
-  </si>
-  <si>
-    <t>555 Technology Ct Ste 300; Riverside; CA 92507</t>
-  </si>
-  <si>
-    <t>Hirsch</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>Nolan</t>
-  </si>
-  <si>
-    <t>1025 E Main St Ste 100; League City; TX 77573</t>
-  </si>
-  <si>
-    <t>Coltman</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>1720 S Beckham Ave Ste 104; Tyler; TX 75701</t>
-  </si>
-  <si>
-    <t>Bohnenblust</t>
-  </si>
-  <si>
-    <t>Brenda</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>SLP</t>
-  </si>
-  <si>
-    <t>715 Liberty St; Clay Center; KS 67432</t>
-  </si>
-  <si>
-    <t>Weller</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>22833 Bothell Everett Hwy Ste 205; Bothell; WA 98021</t>
-  </si>
-  <si>
-    <t>Harmon</t>
-  </si>
-  <si>
-    <t>Martha</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>1113 NW 23rd Ave; Chiefland; FL 32626</t>
-  </si>
-  <si>
-    <t>Ward</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>Louise</t>
-  </si>
-  <si>
-    <t>2131 S 17th St; Wilmington; NC 28401</t>
-  </si>
-  <si>
-    <t>Khorsandi</t>
-  </si>
-  <si>
-    <t>2779 Sunridge Heights Pkwy Ste 100; Henderson; NV 89052</t>
-  </si>
-  <si>
-    <t>Seirafi</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>2000 10th Ave Ste 225; Columbus; GA 31901</t>
-  </si>
-  <si>
-    <t>Storts</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Sue</t>
-  </si>
-  <si>
-    <t>LISW</t>
-  </si>
-  <si>
-    <t>1490 E Main St; Columbus; OH 43205</t>
-  </si>
-  <si>
-    <t>Lisner</t>
-  </si>
-  <si>
-    <t>Blaine</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>4209 Outer Loop; Louisville; KY 40219</t>
-  </si>
-  <si>
-    <t>Hogg</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>1111 Hendersonville Rd; Asheville; NC 28803</t>
-  </si>
-  <si>
-    <t>Hellmann</t>
-  </si>
-  <si>
-    <t>340 Oxford St; Dover; OH 44622</t>
-  </si>
-  <si>
-    <t>Laroy</t>
-  </si>
-  <si>
-    <t>123 W 31st St; Kearney; NE 68847</t>
-  </si>
-  <si>
-    <t>Fontenoy</t>
-  </si>
-  <si>
-    <t>Serena</t>
-  </si>
-  <si>
-    <t>60 W Sunbridge Dr; Fayetteville; AR 72703</t>
-  </si>
-  <si>
-    <t>Hendricks</t>
-  </si>
-  <si>
-    <t>301 Saint Paul St; Baltimore; MD 21202</t>
-  </si>
-  <si>
-    <t>Kaopua</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>L.K.</t>
-  </si>
-  <si>
-    <t>111 Se Everett Mall Way D; Everett; WA 98208</t>
-  </si>
-  <si>
-    <t>Starenchak</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>29800 Bainbridge Rd # So-10; Solon; OH 44139</t>
-  </si>
-  <si>
-    <t>Beste</t>
-  </si>
-  <si>
-    <t>Janalynn</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>2523 DELANEY AVE; Wilmington; NC 28403</t>
-  </si>
-  <si>
-    <t>Roth</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>1000 W Pinhook Rd Ste 304; Lafayette; LA 70503</t>
-  </si>
-  <si>
-    <t>Pishvaian</t>
-  </si>
-  <si>
-    <t>Jon</t>
-  </si>
-  <si>
-    <t>18109 Prince Philip Dr Ste B100; Olney; MD 20832</t>
-  </si>
-  <si>
-    <t>Rudolph</t>
-  </si>
-  <si>
-    <t>Bradley</t>
-  </si>
-  <si>
-    <t>1939 Division Ave S; Grand Rapids; MI 49507</t>
-  </si>
-  <si>
-    <t>Dunlap</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Curtis</t>
-  </si>
-  <si>
-    <t>4811 Ambassador Caffery Pkwy Ste 401a; Lafayette; LA 70508</t>
-  </si>
-  <si>
-    <t>Raleigh</t>
-  </si>
-  <si>
-    <t>Reid</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>2002 Medical Pkwy Ste 630; Annapolis; MD 21401</t>
-  </si>
-  <si>
-    <t>Valvo</t>
-  </si>
-  <si>
-    <t>Barbara</t>
-  </si>
-  <si>
-    <t>463 S Lake Powell Blvd; Page; AZ 86040</t>
-  </si>
-  <si>
-    <t>Gebhart</t>
-  </si>
-  <si>
-    <t>200 1st St Sw; Rochester; MN 55905</t>
-  </si>
-  <si>
-    <t>Mathiason</t>
-  </si>
-  <si>
-    <t>Diane</t>
-  </si>
-  <si>
-    <t>Marie Leslie</t>
-  </si>
-  <si>
-    <t>LRD</t>
-  </si>
-  <si>
-    <t>1200 S Columbia Rd; Grand Forks; ND 58201</t>
-  </si>
-  <si>
-    <t>Chai</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>Martono</t>
-  </si>
-  <si>
-    <t>1520 BARTON RD; Redlands; CA 92373</t>
-  </si>
-  <si>
-    <t>Torres</t>
-  </si>
-  <si>
-    <t>Javier</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>8445 Rosemead Blvd; Pico Rivera; CA 90660</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Eugene</t>
-  </si>
-  <si>
-    <t>2650 Ridge Ave Rm 5303; Evanston; IL 60201</t>
-  </si>
-  <si>
-    <t>Heather</t>
-  </si>
-  <si>
-    <t>Joyce</t>
-  </si>
-  <si>
-    <t>4004 Campbell St; Valparaiso; IN 46385</t>
-  </si>
-  <si>
-    <t>Carver</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Taun</t>
-  </si>
-  <si>
-    <t>APRN</t>
-  </si>
-  <si>
-    <t>4403 Harrison Blvd Ste 2455; Ogden; UT 84403</t>
-  </si>
-  <si>
-    <t>Goedjen</t>
-  </si>
-  <si>
-    <t>Brent</t>
-  </si>
-  <si>
-    <t>135 Norcross St; Roswell; GA 30075</t>
-  </si>
-  <si>
-    <t>Dee-Reyes</t>
-  </si>
-  <si>
-    <t>Christine</t>
-  </si>
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>5995 S Pointe Blvd; Fort Myers; FL 33919</t>
-  </si>
-  <si>
-    <t>Pluguez</t>
-  </si>
-  <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>55 Calle De Diego E Ste 101; Mayaguez; PR 00680</t>
-  </si>
-  <si>
-    <t>Stansbury</t>
-  </si>
-  <si>
-    <t>FNP-C</t>
-  </si>
-  <si>
-    <t>100 Westland Pl; West Monroe; LA 71291</t>
-  </si>
-  <si>
-    <t>Hearn</t>
-  </si>
-  <si>
-    <t>Deborah</t>
-  </si>
-  <si>
-    <t>1311 Brandywine Blvd; Wilmington; DE 19809</t>
-  </si>
-  <si>
-    <t>McGowan</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Spencer</t>
-  </si>
-  <si>
-    <t>415 Medical Dr Ste A200; Bountiful; UT 84010</t>
-  </si>
-  <si>
-    <t>Addona</t>
-  </si>
-  <si>
-    <t>Tommaso</t>
-  </si>
-  <si>
-    <t>999 Franklin Ave; Garden City; NY 11530</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>5142 Stage Rd Ste 100; Memphis; TN 38134</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Dakota</t>
-  </si>
-  <si>
-    <t>4755 Ogletown Stanton Rd Ste Le45; Newark; DE 19718</t>
-  </si>
-  <si>
-    <t>Roberts</t>
-  </si>
-  <si>
-    <t>Maurice</t>
-  </si>
-  <si>
-    <t>Godocs Llc 949 Piney Frst Rd; Danville; VA 24540</t>
-  </si>
-  <si>
-    <t>Diefendorf</t>
-  </si>
-  <si>
-    <t>Donald</t>
-  </si>
-  <si>
-    <t>2700 Quarry Lake Dr Ste 300; Baltimore; MD 21209</t>
-  </si>
-  <si>
-    <t>Varma</t>
-  </si>
-  <si>
-    <t>Ajay</t>
-  </si>
-  <si>
-    <t>Medavaram</t>
-  </si>
-  <si>
-    <t>2124 State Route 35; Holmdel; NJ 07733</t>
-  </si>
-  <si>
-    <t>Langley</t>
-  </si>
-  <si>
-    <t>Tonya</t>
-  </si>
-  <si>
-    <t>CSFA</t>
-  </si>
-  <si>
-    <t>1040 S Fleishel Ave; Tyler; TX 75701</t>
-  </si>
-  <si>
-    <t>Starobinets</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>25-15 Fair Lawn Ave; Fair Lawn; NJ 07410</t>
-  </si>
-  <si>
-    <t>Morelli</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>48 S New York Rd Ste B4; Smithville; NJ 08205</t>
-  </si>
-  <si>
-    <t>Demboski</t>
-  </si>
-  <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>5830 Coral Ridge Dr Ste 120; Coral Springs; FL 33076</t>
-  </si>
-  <si>
-    <t>Cherpack</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>8701 Shoal Creek Blvd Ste 102; Austin; TX 78757</t>
-  </si>
-  <si>
-    <t>Mayeda</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>1140 W La Veta Ave Ste 420; Orange; CA 92868</t>
-  </si>
-  <si>
-    <t>Schwartz</t>
-  </si>
-  <si>
-    <t>Stephen</t>
-  </si>
-  <si>
-    <t>Lloyd</t>
-  </si>
-  <si>
-    <t>1919 N Ed Carey Dr; Harlingen; TX 78550</t>
-  </si>
-  <si>
-    <t>Co</t>
-  </si>
-  <si>
-    <t>511 Nilles Rd; Fairfield; OH 45014</t>
-  </si>
-  <si>
-    <t>Otero</t>
-  </si>
-  <si>
-    <t>Susan</t>
-  </si>
-  <si>
-    <t>Evette</t>
-  </si>
-  <si>
-    <t>916 N Mountain Ave Ste A; Upland; CA 91786</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>5921 Riley Park Dr; Fort Smith; AR 72916</t>
-  </si>
-  <si>
-    <t>Ebrahimpour</t>
-  </si>
-  <si>
-    <t>Pantea</t>
-  </si>
-  <si>
-    <t>123 Summer St; Worcester; MA 01608</t>
-  </si>
-  <si>
-    <t>Pool</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Frances</t>
-  </si>
-  <si>
-    <t>1660 S Columbian Way; Seattle; WA 98108</t>
-  </si>
-  <si>
-    <t>Hamrock</t>
-  </si>
-  <si>
-    <t>735 Niles Cortland Rd Se; Warren; OH 44484</t>
-  </si>
-  <si>
-    <t>Adefris</t>
-  </si>
-  <si>
-    <t>Wanda</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>1875 Woodwinds Dr Ste 110; Woodbury; MN 55125</t>
-  </si>
-  <si>
-    <t>Elsheikh</t>
-  </si>
-  <si>
-    <t>Bakri</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>395 W 12th Ave; Columbus; OH 43210</t>
-  </si>
-  <si>
-    <t>Akcoban</t>
-  </si>
-  <si>
-    <t>Claudia</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
-    <t>205 E Toronto Ave; McAllen; TX 78503</t>
-  </si>
-  <si>
-    <t>Casallas</t>
-  </si>
-  <si>
-    <t>Flora</t>
-  </si>
-  <si>
-    <t>CADC</t>
-  </si>
-  <si>
-    <t>500 N West St; Doylestown; PA 18901</t>
-  </si>
-  <si>
-    <t>Aetna: Choice Plus POS II</t>
-  </si>
-  <si>
-    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Coventry Health America PPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Dental DPPO | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | Delta Dental: Delta Dental PPO | Delta Dental: Delta Dental Premier  | UnitedHealthCare: United Healthcare </t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna PPO | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Aetna  | Cigna: Cigna  | Coventry Health Care: Coventry Health Care  | MultiPlan: MultiPlan  | UnitedHealthCare: United Healthcare </t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Advantage  | Aetna: Aetna HMO | Aetna: Choice  | Aetna: Choice POS | Aetna: Choice PPO | Aetna: Choice Plus POS II | Aetna: Commercial HMO | Aetna: Elect Choice  | Aetna: Elect Choice EPO | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: LocalPlus  | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network POS | MultiPlan: PHCS Network PPO | MultiPlan: PHCS Open Access PPO | UnitedHealthCare: United Behavioral Health </t>
-  </si>
-  <si>
-    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Great West Healthcare-Cigna  | Cigna: Great West Healthcare-Cigna PPO | Cigna: Open Access  | Coventry Health Care: Group Plan PPO | First Health (Coventry Health Care): First Health (Coventry Health Care)  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | UnitedHealthCare: Navigate HMO | UnitedHealthCare: Navigate POS</t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: PHCS Network PPO | UnitedHealthCare: Choice Plus POS | UnitedHealthCare: Navigate HMO | UnitedHealthCare: Navigate POS | UnitedHealthCare: Options PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Coventry Health America PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t>Blue Cross Blue Shield: Blue Card PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Great West Healthcare-Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Medicare Advantage PFFS | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO | UnitedHealthCare: Choice Plus POS | UnitedHealthCare: Navigate HMO | UnitedHealthCare: Navigate POS | UnitedHealthCare: Options PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Aetna: Select  | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Southern Health PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna PPO | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Basic HMO | Aetna: Choice Plus POS II | Anthem: $0 Cost Share AI-AN (Pathway X - HMO/ Individual Via Exchange)-CA HMO | Anthem: Advantage-CA HMO | Anthem: Advantage-CA PPO | Anthem: Balanced (Prudent Buyer)-CA PPO | Anthem: Blue Cross (CACare) - Individual-CA HMO | Anthem: Blue Cross (CACare) - Large Group-CA HMO | Anthem: Blue Cross (CACare) - Small Group-CA HMO | Anthem: Blue Cross (Prudent Buyer) - Individual-CA PPO | Anthem: Blue Cross (Prudent Buyer) - Large Group-CA PPO | Anthem: Blue Cross (Prudent Buyer) - Small Group-CA PPO | Anthem: Blue Cross (Prudent Buyer) - Student Health-CA PPO | Anthem: Blue Cross-CA HMO-POS | Anthem: Bronze (Prudent Buyer PPO/ Small Grp)-CA PPO | Anthem: Bronze 60 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Bronze 60 AI-AN (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Bronze 60 D (Pathway - HMO/ Individual)-CA HMO | Anthem: Bronze EPO (Prudent Buyer / Small Grp)-CA PPO | Anthem: Bronze EPO (Prudent Buyer EPO/ Small Grp)-CA  | Anthem: Bronze Select (Select PPO/ Small Grp)-CA PPO | Anthem: Bronze Select w/ H.S.A (Select PPO/ Small Grp)-CA PPO | Anthem: Bronze w/ H.S.A (Prudent Buyer PPO/Small Grp)-CA PPO | Anthem: Dignity Health Custom Advantage-CA HMO | Anthem: Dignity Health EPO / PPO-CA  | Anthem: Dignity Health PHC EPO &amp;amp; HDP/HSA-CA  | Anthem: Dignity Health Ventura EPO/PPO-CA  | Anthem: EPO-CA  | Anthem: Gold (CaliforniaCare HMO/ Small Grp) HMO | Anthem: Gold (Prudent Buyer PPO/ Small Grp)-CA PPO | Anthem: Gold 80 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Gold 80 AI-AN (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Gold 80 D (Pathway - HMO/ Individual)-CA HMO | Anthem: Gold Advantage-CA PPO | Anthem: Gold EPO (Prudent Buyer / Small Grp)-CA PPO | Anthem: Gold EPO (Prudent Buyer EPO/ Small Grp)-CA  | Anthem: Gold Priority Select-CA HMO | Anthem: Gold Select (Select / Small Grp)-CA HMO | Anthem: Gold Select (Select PPO/ Small Grp)-CA PPO | Anthem: Lumenos Plans-CA PPO | Anthem: Major Risk Medical Insurance Program (MRMIP) - Prudent Buyer-CA PPO | Anthem: MemorialCare Custom-CA PPO | Anthem: Minimum Coverage-CA HMO | Anthem: National (BlueCard Basic) PPO | Anthem: National (BlueCard) PPO | Anthem: Pathway X - Network-CA HMO | Anthem: PERS Choice / PERSCare Providers-CA PPO | Anthem: PERS Select-CA HMO | Anthem: PERS Traditional-CA HMO | Anthem: Platinum (CaliforniaCare HMO/ Small Grp) HMO | Anthem: Platinum (Prudent Buyer PPO/ Small Grp)-CA PPO | Anthem: Platinum 90 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Platinum 90 AI-AN (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Platinum 90 D (Pathway - HMO/ Individual)-CA HMO | Anthem: Platinum Priority Select-CA HMO | Anthem: Platinum Select (Select / Small Grp)-CA HMO | Anthem: Platinum Select (Select PPO/ Small Grp)-CA PPO | Anthem: Priority Select-CA HMO | Anthem: Select (PERS Select Providers)-CA PPO | Anthem: Select Plus-CA HMO | Anthem: Select PPO (Select Network)-CA PPO | Anthem: Select-CA HMO | Anthem: Select-CA PPO | Anthem: Silver (CaliforniaCare HMO/ Small Grp) HMO | Anthem: Silver (Prudent Buyer PPO/ Small Grp)-CA PPO | Anthem: Silver 70 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver 70 AI-AN (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver 70 Off Exchange (Pathway - HMO/ Individual)-CA HMO | Anthem: Silver 73 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver 87 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver 94 (Pathway X - HMO/ Individual via Exchange)-CA HMO | Anthem: Silver Advantage-CA PPO | Anthem: Silver EPO (Prudent Buyer EPO/ Small Grp)-CA  | Anthem: Silver EPO w/ H.S.A (Prudent Buyer/Small Grp)-CA PPO | Anthem: Silver Priority Select-CA HMO | Anthem: Silver Select (Select / Small Grp)-CA HMO | Anthem: Silver Select (Select PPO/ Small Grp)-CA PPO | Anthem: Silver Select w/ H.S.A (Select PPO/ Small Grp)-CA PPO | Anthem: Silver w/ H.S.A (Prudent Buyer PPO/Small Grp)-CA PPO | Anthem: Tenet Network-CA PPO | Anthem: Traditional  | Anthem: Traditional PPO | Anthem: UC Care-CA PPO | Anthem: UC CORE-CA PPO | Anthem: UC Health Savings Plan-CA  | Anthem: UC High Option Supplement to Medicare-CA  | Anthem: UC Medicare with Prescription Drugs-CA PPO | Anthem: UC Medicare without Prescription Drugs-CA PPO | Anthem: UC Resident and Fellows-CA PPO | Anthem: UCSHIP-CA PPO | Anthem: USC Plan (Two Tiered Network)-CA HMO | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: LocalPlus  | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t>Blue Cross Blue Shield: Blue Card PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Coventry Health Care: Coventry Health America PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Choice Plus POS II | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Aetna  | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | MultiPlan: MultiPlan </t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Blue Cross Blue Shield: Blue Card PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Aetna  | Aetna: Dental DPPO | Blue Cross Blue Shield: Blue Cross  | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | Coventry Health Care: Coventry Health Care  | Delta Dental: Delta Dental  | Delta Dental: Delta Dental PPO | Delta Dental: Delta Dental Premier  | MultiPlan: MultiPlan  | UnitedHealthCare: Dental </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Aetna  | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna  | UnitedHealthCare: United Healthcare </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Aetna  | Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | Cigna: Cigna HMO | Cigna: Open Access Plus  | Coventry Health Care: Coventry Health Care  | MultiPlan: MultiPlan PPO | UnitedHealthCare: United Healthcare </t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Aetna: Select  | Cigna: Cigna PPO | Coventry Health Care: Southern Health PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Aetna  | Blue Cross Blue Shield: Blue Cross Blue Shield  | Cigna: Cigna  | UnitedHealthCare: United Healthcare </t>
-  </si>
-  <si>
-    <t>Anthem: National (BlueCard) PPO</t>
-  </si>
-  <si>
-    <t>First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Anthem: National (BlueCard) PPO | Blue Cross Blue Shield: Blue Card PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t>Aetna: Aetna HMO | Aetna: Choice Plus POS II | Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | Coventry Health Care: Coventry Health America PPO | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO</t>
-  </si>
-  <si>
-    <t>Blue Cross Blue Shield: Blue Card PPO | Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cigna: Cigna HMO | Cigna: Cigna PPO | Cigna: Open Access Plus  | First Health (Coventry Health Care): First Health (Coventry Health Care) PPO | UnitedHealthCare: Optimum Choice HMO | UnitedHealthCare: United Behavioral Health </t>
-  </si>
-  <si>
-    <t>Procenko</t>
-  </si>
-  <si>
-    <t>Cassiann</t>
-  </si>
-  <si>
-    <t>LICSW</t>
-  </si>
-  <si>
-    <t>2320 Highway 12 E Ste 2; Willmar; MN 56201</t>
-  </si>
-  <si>
-    <t>(320) 214-9692</t>
-  </si>
-  <si>
-    <t>Social Work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Choice Plus POS II | Cigna: Cigna PPO | Cigna: Open Access Plus </t>
-  </si>
-  <si>
-    <t>Ins Id</t>
-  </si>
-  <si>
-    <t>Suffix</t>
-  </si>
-  <si>
-    <t>PrimaryPhone</t>
-  </si>
-  <si>
-    <t>PrimarySpecialty</t>
-  </si>
-  <si>
-    <t>(507) 405-0046</t>
-  </si>
-  <si>
-    <t>Radiology</t>
-  </si>
-  <si>
-    <t>Aetna: Choice Plus POS II | MultiPlan: MultiPlan PPO | MultiPlan: PHCS Network PPO</t>
-  </si>
-  <si>
-    <t>100 Rice Mine Rd N Ste D; Tuscaloosa; AL 35406</t>
-  </si>
-  <si>
-    <t>(205) 248-9077</t>
-  </si>
-  <si>
-    <t>Dentistry</t>
-  </si>
-  <si>
-    <t>Aetna: Dental DPPO</t>
-  </si>
-  <si>
-    <t>11524 La Grange Ave; Los Angeles; CA 90025</t>
-  </si>
-  <si>
-    <t>(310) 801-2124</t>
-  </si>
-  <si>
-    <t>Aetna: Dental DPPO | Aetna: Dental Maintenance Organization DMO | Coventry Health Care: Wellpath Preferred PPO | Delta Dental: Delta Dental PPO | Delta Dental: Delta Dental Premier  | UnitedHealthCare: Dental  | UnitedHealthCare: Dental California DHMO</t>
-  </si>
-  <si>
-    <t>131 W Ontario Ave Ste 102; Corona; CA 92882</t>
-  </si>
-  <si>
-    <t>(951) 898-9700</t>
-  </si>
-  <si>
-    <t>Pediatric Dentistry</t>
-  </si>
-  <si>
-    <t>3365 Rosecrans St Ste C; San Diego; CA 92110</t>
-  </si>
-  <si>
-    <t>(619) 222-6000</t>
-  </si>
-  <si>
-    <t>2305 W WILLIAM CANNON DR; Austin; TX 78745</t>
-  </si>
-  <si>
-    <t>(512) 444-3494</t>
-  </si>
-  <si>
-    <t>1500 Southgate Ave Ste 210; Daly City; CA 94015</t>
-  </si>
-  <si>
-    <t>(650) 756-0938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aetna: Dental DPPO | Delta Dental: Delta Dental Premier  | UnitedHealthCare: Dental </t>
-  </si>
-  <si>
-    <t>Fleming</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Bennett</t>
-  </si>
-  <si>
-    <t>Calvin</t>
-  </si>
-  <si>
-    <t>Tojarieh</t>
-  </si>
-  <si>
-    <t>Farzad</t>
-  </si>
-  <si>
-    <t>Mody</t>
-  </si>
-  <si>
-    <t>Rakhee</t>
-  </si>
-  <si>
-    <t>Porecha</t>
-  </si>
-  <si>
-    <t>Khansari</t>
-  </si>
-  <si>
-    <t>Leila</t>
-  </si>
-  <si>
-    <t>Sriramaneni</t>
-  </si>
-  <si>
-    <t>Bhavani</t>
-  </si>
-  <si>
-    <t>Devi</t>
-  </si>
-  <si>
-    <t>Belluomini</t>
-  </si>
-  <si>
-    <t>Emil</t>
+    <t>Anthem</t>
+  </si>
+  <si>
+    <t>Blue Cross Blue Shield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1324,13 +1184,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,7 +1213,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1668,11 +1528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,9 +1548,9 @@
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1702,284 +1562,708 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>382</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2">
+        <v>1518954999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3">
+        <v>1568616209</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>1689630188</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5">
+        <v>1114115581</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J1" t="s">
-        <v>384</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <v>1093151177</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1851349633</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8">
+        <v>1417170432</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9">
+        <v>1326392697</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>1417287657</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11">
+        <v>1013085844</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12">
+        <v>1396028387</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13">
+        <v>1801954169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14">
+        <v>1871982181</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15">
+        <v>1174983035</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16">
+        <v>1497076335</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17">
+        <v>1669634663</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>1023557006</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19">
+        <v>1326155326</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20">
+        <v>1619940442</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21">
+        <v>1962642405</v>
+      </c>
+      <c r="F21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1861617615</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23">
+        <v>1922060946</v>
+      </c>
+      <c r="F23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24">
+        <v>1811420029</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>1235376377</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26">
+        <v>1578564837</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27">
+        <v>1780885194</v>
+      </c>
+      <c r="F27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28">
+        <v>1629085949</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2786</v>
-      </c>
-      <c r="B2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2">
-        <v>1457458564</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E29">
+        <v>1902981780</v>
+      </c>
+      <c r="F29" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J2" t="s">
-        <v>390</v>
-      </c>
-      <c r="K2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2552</v>
-      </c>
-      <c r="B3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3">
-        <v>1881125060</v>
-      </c>
-      <c r="G3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H3" t="s">
-        <v>377</v>
-      </c>
-      <c r="I3" t="s">
-        <v>378</v>
-      </c>
-      <c r="J3" t="s">
-        <v>379</v>
-      </c>
-      <c r="K3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2570</v>
-      </c>
-      <c r="B4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4">
-        <v>1841276854</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>216</v>
-      </c>
-      <c r="I4" t="s">
-        <v>385</v>
-      </c>
-      <c r="J4" t="s">
-        <v>386</v>
-      </c>
-      <c r="K4" t="s">
-        <v>387</v>
-      </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2582</v>
-      </c>
-      <c r="B5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5">
-        <v>1649353103</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>388</v>
-      </c>
-      <c r="I5" t="s">
-        <v>389</v>
-      </c>
-      <c r="J5" t="s">
-        <v>390</v>
-      </c>
-      <c r="K5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2626</v>
-      </c>
-      <c r="B6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C6" t="s">
-        <v>410</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6">
-        <v>1215369038</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>392</v>
-      </c>
-      <c r="I6" t="s">
-        <v>393</v>
-      </c>
-      <c r="J6" t="s">
-        <v>390</v>
-      </c>
-      <c r="K6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2709</v>
-      </c>
-      <c r="B7" t="s">
-        <v>411</v>
-      </c>
-      <c r="C7" t="s">
-        <v>412</v>
-      </c>
-      <c r="D7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7">
-        <v>1316320336</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I7" t="s">
-        <v>396</v>
-      </c>
-      <c r="J7" t="s">
-        <v>397</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2711</v>
-      </c>
-      <c r="B8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8">
-        <v>1649399932</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>398</v>
-      </c>
-      <c r="I8" t="s">
-        <v>399</v>
-      </c>
-      <c r="J8" t="s">
-        <v>390</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2766</v>
-      </c>
-      <c r="B9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D9" t="s">
-        <v>418</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9">
-        <v>1275727463</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>400</v>
-      </c>
-      <c r="I9" t="s">
-        <v>401</v>
-      </c>
-      <c r="J9" t="s">
-        <v>390</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
+      <c r="G29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1376614768</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2007,10 +2291,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
       </c>
       <c r="E1">
         <v>1518954999</v>
@@ -2019,10 +2303,10 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2033,19 +2317,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
       </c>
       <c r="E2">
         <v>1568616209</v>
       </c>
       <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
         <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2053,13 +2337,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>1689630188</v>
@@ -2068,10 +2352,10 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2079,13 +2363,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>1114115581</v>
@@ -2094,10 +2378,10 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2105,13 +2389,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
       </c>
       <c r="E5">
         <v>1093151177</v>
@@ -2120,7 +2404,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2128,10 +2412,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -2143,7 +2427,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2151,13 +2435,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>1417170432</v>
@@ -2166,7 +2450,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2174,19 +2458,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
         <v>98</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
       </c>
       <c r="E8">
         <v>1326392697</v>
       </c>
       <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
         <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2194,13 +2478,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
         <v>102</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>103</v>
-      </c>
-      <c r="D9" t="s">
-        <v>104</v>
       </c>
       <c r="E9">
         <v>1417287657</v>
@@ -2209,7 +2493,7 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2217,10 +2501,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
         <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
       </c>
       <c r="E10">
         <v>1013085844</v>
@@ -2229,10 +2513,10 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2240,10 +2524,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
         <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
       </c>
       <c r="E11">
         <v>1396028387</v>
@@ -2252,7 +2536,7 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2260,13 +2544,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12">
         <v>1801954169</v>
@@ -2275,10 +2559,10 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2286,25 +2570,25 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>116</v>
-      </c>
-      <c r="D13" t="s">
-        <v>117</v>
       </c>
       <c r="E13">
         <v>1871982181</v>
       </c>
       <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
         <v>118</v>
       </c>
-      <c r="G13" t="s">
-        <v>119</v>
-      </c>
       <c r="H13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2312,19 +2596,19 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>121</v>
       </c>
       <c r="E14">
         <v>1174983035</v>
       </c>
       <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
         <v>122</v>
-      </c>
-      <c r="G14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2332,13 +2616,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
         <v>124</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>125</v>
-      </c>
-      <c r="D15" t="s">
-        <v>126</v>
       </c>
       <c r="E15">
         <v>1497076335</v>
@@ -2347,10 +2631,10 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2358,13 +2642,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16">
         <v>1669634663</v>
@@ -2373,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
@@ -2384,10 +2668,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
         <v>131</v>
-      </c>
-      <c r="C17" t="s">
-        <v>132</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -2396,7 +2680,7 @@
         <v>1023557006</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2404,13 +2688,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s">
         <v>134</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>135</v>
-      </c>
-      <c r="D18" t="s">
-        <v>136</v>
       </c>
       <c r="E18">
         <v>1326155326</v>
@@ -2419,10 +2703,10 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2430,10 +2714,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
         <v>138</v>
-      </c>
-      <c r="C19" t="s">
-        <v>139</v>
       </c>
       <c r="E19">
         <v>1619940442</v>
@@ -2442,10 +2726,10 @@
         <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2453,22 +2737,22 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
         <v>141</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>142</v>
-      </c>
-      <c r="D20" t="s">
-        <v>143</v>
       </c>
       <c r="E20">
         <v>1962642405</v>
       </c>
       <c r="F20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2476,10 +2760,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
         <v>146</v>
-      </c>
-      <c r="C21" t="s">
-        <v>147</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -2491,7 +2775,7 @@
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
         <v>22</v>
@@ -2502,19 +2786,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
         <v>149</v>
-      </c>
-      <c r="C22" t="s">
-        <v>150</v>
       </c>
       <c r="E22">
         <v>1922060946</v>
       </c>
       <c r="F22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2522,13 +2806,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
         <v>153</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>154</v>
-      </c>
-      <c r="D23" t="s">
-        <v>155</v>
       </c>
       <c r="E23">
         <v>1811420029</v>
@@ -2537,7 +2821,7 @@
         <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2545,7 +2829,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -2557,7 +2841,7 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2565,13 +2849,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
         <v>159</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>160</v>
-      </c>
-      <c r="D25" t="s">
-        <v>161</v>
       </c>
       <c r="E25">
         <v>1578564837</v>
@@ -2580,10 +2864,10 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2591,22 +2875,22 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
         <v>163</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>164</v>
-      </c>
-      <c r="D26" t="s">
-        <v>165</v>
       </c>
       <c r="E26">
         <v>1780885194</v>
       </c>
       <c r="F26" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" t="s">
         <v>166</v>
-      </c>
-      <c r="G26" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2614,13 +2898,13 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" t="s">
         <v>168</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>169</v>
-      </c>
-      <c r="D27" t="s">
-        <v>170</v>
       </c>
       <c r="E27">
         <v>1629085949</v>
@@ -2629,10 +2913,10 @@
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2640,13 +2924,13 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" t="s">
         <v>172</v>
       </c>
-      <c r="C28" t="s">
-        <v>173</v>
-      </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <v>1902981780</v>
@@ -2655,7 +2939,7 @@
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2663,10 +2947,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2678,10 +2962,10 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2692,7 +2976,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E30">
         <v>1619904927</v>
@@ -2701,10 +2985,10 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2712,10 +2996,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" t="s">
         <v>179</v>
-      </c>
-      <c r="C31" t="s">
-        <v>180</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -2724,10 +3008,10 @@
         <v>1285186692</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2735,7 +3019,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
@@ -2750,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2758,13 +3042,13 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" t="s">
         <v>184</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>185</v>
-      </c>
-      <c r="D33" t="s">
-        <v>186</v>
       </c>
       <c r="E33">
         <v>1356304000</v>
@@ -2773,7 +3057,7 @@
         <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H33" t="s">
         <v>28</v>
@@ -2784,13 +3068,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" t="s">
         <v>188</v>
       </c>
-      <c r="C34" t="s">
-        <v>189</v>
-      </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34">
         <v>1356338107</v>
@@ -2799,10 +3083,10 @@
         <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2810,13 +3094,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
         <v>191</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>192</v>
-      </c>
-      <c r="D35" t="s">
-        <v>193</v>
       </c>
       <c r="E35">
         <v>1750388161</v>
@@ -2825,10 +3109,10 @@
         <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2836,13 +3120,13 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E36">
         <v>1215934187</v>
@@ -2851,10 +3135,10 @@
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2862,13 +3146,13 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" t="s">
         <v>198</v>
-      </c>
-      <c r="C37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" t="s">
-        <v>199</v>
       </c>
       <c r="E37">
         <v>1710171061</v>
@@ -2877,10 +3161,10 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2914,16 +3198,16 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" t="s">
         <v>201</v>
-      </c>
-      <c r="C39" t="s">
-        <v>202</v>
       </c>
       <c r="E39">
         <v>1376019117</v>
       </c>
       <c r="G39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2931,13 +3215,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" t="s">
         <v>204</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>205</v>
-      </c>
-      <c r="D40" t="s">
-        <v>206</v>
       </c>
       <c r="E40">
         <v>1174562367</v>
@@ -2946,7 +3230,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2954,19 +3238,19 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" t="s">
         <v>208</v>
-      </c>
-      <c r="C41" t="s">
-        <v>209</v>
       </c>
       <c r="E41">
         <v>1780772707</v>
       </c>
       <c r="F41" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" t="s">
         <v>210</v>
-      </c>
-      <c r="G41" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2974,16 +3258,16 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" t="s">
         <v>212</v>
-      </c>
-      <c r="C42" t="s">
-        <v>213</v>
       </c>
       <c r="E42">
         <v>1558765255</v>
       </c>
       <c r="G42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H42" t="s">
         <v>33</v>
@@ -2994,13 +3278,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E43">
         <v>1902884737</v>
@@ -3009,10 +3293,10 @@
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3020,22 +3304,22 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" t="s">
         <v>217</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>218</v>
-      </c>
-      <c r="D44" t="s">
-        <v>219</v>
       </c>
       <c r="E44">
         <v>1215156518</v>
       </c>
       <c r="F44" t="s">
+        <v>219</v>
+      </c>
+      <c r="G44" t="s">
         <v>220</v>
-      </c>
-      <c r="G44" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3069,13 +3353,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" t="s">
         <v>222</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>223</v>
-      </c>
-      <c r="D46" t="s">
-        <v>224</v>
       </c>
       <c r="E46">
         <v>1548299928</v>
@@ -3084,10 +3368,10 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H46" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3095,13 +3379,13 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" t="s">
         <v>226</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>227</v>
-      </c>
-      <c r="D47" t="s">
-        <v>228</v>
       </c>
       <c r="E47">
         <v>1013091461</v>
@@ -3110,10 +3394,10 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3121,13 +3405,13 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
         <v>230</v>
-      </c>
-      <c r="C48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" t="s">
-        <v>231</v>
       </c>
       <c r="E48">
         <v>1780604041</v>
@@ -3136,10 +3420,10 @@
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3147,13 +3431,13 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" t="s">
         <v>233</v>
-      </c>
-      <c r="D49" t="s">
-        <v>234</v>
       </c>
       <c r="E49">
         <v>1710945811</v>
@@ -3162,7 +3446,7 @@
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3170,25 +3454,25 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" t="s">
         <v>236</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>237</v>
-      </c>
-      <c r="D50" t="s">
-        <v>238</v>
       </c>
       <c r="E50">
         <v>1447437926</v>
       </c>
       <c r="F50" t="s">
+        <v>238</v>
+      </c>
+      <c r="G50" t="s">
         <v>239</v>
       </c>
-      <c r="G50" t="s">
-        <v>240</v>
-      </c>
       <c r="H50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3196,10 +3480,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" t="s">
         <v>241</v>
-      </c>
-      <c r="C51" t="s">
-        <v>242</v>
       </c>
       <c r="D51" t="s">
         <v>26</v>
@@ -3211,10 +3495,10 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3222,19 +3506,19 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" t="s">
         <v>244</v>
-      </c>
-      <c r="C52" t="s">
-        <v>245</v>
       </c>
       <c r="E52">
         <v>1124081641</v>
       </c>
       <c r="F52" t="s">
+        <v>245</v>
+      </c>
+      <c r="G52" t="s">
         <v>246</v>
-      </c>
-      <c r="G52" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3242,10 +3526,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" t="s">
         <v>248</v>
-      </c>
-      <c r="C53" t="s">
-        <v>249</v>
       </c>
       <c r="E53">
         <v>1093852576</v>
@@ -3254,7 +3538,7 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3262,25 +3546,25 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E54">
         <v>1508271719</v>
       </c>
       <c r="F54" t="s">
+        <v>251</v>
+      </c>
+      <c r="G54" t="s">
         <v>252</v>
       </c>
-      <c r="G54" t="s">
-        <v>253</v>
-      </c>
       <c r="H54" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3288,16 +3572,16 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55" t="s">
         <v>254</v>
-      </c>
-      <c r="C55" t="s">
-        <v>255</v>
       </c>
       <c r="E55">
         <v>1225388663</v>
       </c>
       <c r="G55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3305,13 +3589,13 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" t="s">
         <v>257</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>258</v>
-      </c>
-      <c r="D56" t="s">
-        <v>259</v>
       </c>
       <c r="E56">
         <v>1659661288</v>
@@ -3320,10 +3604,10 @@
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3331,10 +3615,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
+        <v>260</v>
+      </c>
+      <c r="C57" t="s">
         <v>261</v>
-      </c>
-      <c r="C57" t="s">
-        <v>262</v>
       </c>
       <c r="E57">
         <v>1306004353</v>
@@ -3343,10 +3627,10 @@
         <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H57" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3354,10 +3638,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" t="s">
         <v>264</v>
-      </c>
-      <c r="C58" t="s">
-        <v>265</v>
       </c>
       <c r="D58" t="s">
         <v>37</v>
@@ -3369,10 +3653,10 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H58" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3380,13 +3664,13 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" t="s">
         <v>267</v>
       </c>
-      <c r="C59" t="s">
-        <v>268</v>
-      </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E59">
         <v>1689094534</v>
@@ -3395,7 +3679,7 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3403,19 +3687,19 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" t="s">
         <v>270</v>
-      </c>
-      <c r="C60" t="s">
-        <v>271</v>
       </c>
       <c r="E60">
         <v>1194297853</v>
       </c>
       <c r="F60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3423,25 +3707,25 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>272</v>
+      </c>
+      <c r="C61" t="s">
         <v>273</v>
       </c>
-      <c r="C61" t="s">
-        <v>274</v>
-      </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E61">
         <v>1437187002</v>
       </c>
       <c r="F61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3449,13 +3733,13 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" t="s">
         <v>276</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>277</v>
-      </c>
-      <c r="D62" t="s">
-        <v>278</v>
       </c>
       <c r="E62">
         <v>1841482106</v>
@@ -3464,10 +3748,10 @@
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3501,22 +3785,22 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C64" t="s">
         <v>280</v>
-      </c>
-      <c r="C64" t="s">
-        <v>281</v>
       </c>
       <c r="E64">
         <v>1316308554</v>
       </c>
       <c r="F64" t="s">
+        <v>281</v>
+      </c>
+      <c r="G64" t="s">
         <v>282</v>
       </c>
-      <c r="G64" t="s">
-        <v>283</v>
-      </c>
       <c r="H64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3573,10 +3857,10 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" t="s">
         <v>284</v>
-      </c>
-      <c r="C67" t="s">
-        <v>285</v>
       </c>
       <c r="E67">
         <v>1336323450</v>
@@ -3585,7 +3869,7 @@
         <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H67" t="s">
         <v>50</v>
@@ -3622,13 +3906,13 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" t="s">
         <v>287</v>
-      </c>
-      <c r="C69" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" t="s">
-        <v>288</v>
       </c>
       <c r="E69">
         <v>1801958210</v>
@@ -3637,10 +3921,10 @@
         <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3671,16 +3955,16 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
+        <v>289</v>
+      </c>
+      <c r="C71" t="s">
         <v>290</v>
-      </c>
-      <c r="C71" t="s">
-        <v>291</v>
       </c>
       <c r="E71">
         <v>1417207663</v>
       </c>
       <c r="G71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3688,10 +3972,10 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
+        <v>292</v>
+      </c>
+      <c r="C72" t="s">
         <v>293</v>
-      </c>
-      <c r="C72" t="s">
-        <v>294</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -3703,10 +3987,10 @@
         <v>58</v>
       </c>
       <c r="G72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3714,13 +3998,13 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" t="s">
         <v>296</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>297</v>
-      </c>
-      <c r="D73" t="s">
-        <v>298</v>
       </c>
       <c r="E73">
         <v>1487716544</v>
@@ -3729,10 +4013,10 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H73" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3740,13 +4024,13 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
+        <v>299</v>
+      </c>
+      <c r="C74" t="s">
         <v>300</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>301</v>
-      </c>
-      <c r="D74" t="s">
-        <v>302</v>
       </c>
       <c r="E74">
         <v>1457342412</v>
@@ -3755,7 +4039,7 @@
         <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3763,7 +4047,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
@@ -3775,10 +4059,10 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3786,19 +4070,19 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76" t="s">
         <v>306</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>307</v>
-      </c>
-      <c r="D76" t="s">
-        <v>308</v>
       </c>
       <c r="E76">
         <v>1831222652</v>
       </c>
       <c r="G76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3806,10 +4090,10 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
+        <v>309</v>
+      </c>
+      <c r="C77" t="s">
         <v>310</v>
-      </c>
-      <c r="C77" t="s">
-        <v>311</v>
       </c>
       <c r="D77" t="s">
         <v>59</v>
@@ -3821,7 +4105,7 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3829,10 +4113,10 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
+        <v>312</v>
+      </c>
+      <c r="C78" t="s">
         <v>313</v>
-      </c>
-      <c r="C78" t="s">
-        <v>314</v>
       </c>
       <c r="E78">
         <v>1205389715</v>
@@ -3841,7 +4125,7 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3849,19 +4133,19 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" t="s">
         <v>316</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>317</v>
-      </c>
-      <c r="D79" t="s">
-        <v>318</v>
       </c>
       <c r="E79">
         <v>1689190605</v>
       </c>
       <c r="G79" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3869,7 +4153,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -3881,10 +4165,10 @@
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H80" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3941,13 +4225,13 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
+        <v>321</v>
+      </c>
+      <c r="C83" t="s">
         <v>322</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>323</v>
-      </c>
-      <c r="D83" t="s">
-        <v>324</v>
       </c>
       <c r="E83">
         <v>1235115577</v>
@@ -3956,7 +4240,7 @@
         <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H83" t="s">
         <v>68</v>
@@ -3967,13 +4251,13 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
+        <v>325</v>
+      </c>
+      <c r="C84" t="s">
         <v>326</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>327</v>
-      </c>
-      <c r="D84" t="s">
-        <v>328</v>
       </c>
       <c r="E84">
         <v>1275617532</v>
@@ -3982,10 +4266,10 @@
         <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H84" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3993,13 +4277,13 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
+        <v>329</v>
+      </c>
+      <c r="C85" t="s">
         <v>330</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>331</v>
-      </c>
-      <c r="D85" t="s">
-        <v>332</v>
       </c>
       <c r="E85">
         <v>1245626837</v>
@@ -4008,7 +4292,7 @@
         <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4042,22 +4326,22 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" t="s">
         <v>334</v>
-      </c>
-      <c r="C87" t="s">
-        <v>335</v>
       </c>
       <c r="E87">
         <v>1578866802</v>
       </c>
       <c r="F87" t="s">
+        <v>335</v>
+      </c>
+      <c r="G87" t="s">
         <v>336</v>
       </c>
-      <c r="G87" t="s">
-        <v>337</v>
-      </c>
       <c r="H87" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
